--- a/RequestData/jobsearch_data104.xlsx
+++ b/RequestData/jobsearch_data104.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>7/04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -600,22 +600,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7/03</t>
+          <t>7/09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>【內湖區德商科技品牌】Integration Engineer (#數據分析 #python)_ITS_839</t>
+          <t>Python工程師－數據服務</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>藝珂人事顧問股份有限公司</t>
+          <t>雄獅資訊科技股份有限公司</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>人力仲介代徵</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -639,74 +639,6 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Job Description】	
-Quality Testing (QT):
-•	Thoroughly testing software releases developed by our software engineers.
-•	Conducting functional, regression, and performance testing.
-•	Ensuring the software meets the highest quality standards and generate testing report
-Key Account customer IODT reporting:
-•	Providing extensive data for analysis.
-•	Ensuring the accuracy of test data provided by R&amp;D.
-•	Generating weekly reports summarizing testing results and any identified issues.
-•	Informing R&amp;D, AE, and customers for those issue has not yet response the analysis results
-Weekly Reporting to Key Account Clients:
-•	Generating weekly reports summarizing testing results and any identified issues.
-•	Facilitating transparency and communication with our R&amp;D and Key Customer clients.
-Ticket Monitoring and Follow-Up:
-•	Assisting colleagues in monitoring ticket status and ensuring timely resolution.
-•	Contributing to achieving high pass rates and performance targets.
-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7dc0k?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Python工程師－數據服務</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雄獅資訊科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>電腦軟體服務業</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>台北市內湖區</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>工作內容：
 1. API優化、維護和新功能開發。
@@ -718,54 +650,54 @@
 2.</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/71rxc?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Python工程師－數據平台</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>雄獅資訊科技股份有限公司</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>電腦軟體服務業</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>台北市內湖區</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>工作內容：
 1. API優化、維護和新功能開發。
@@ -776,54 +708,54 @@
 2. 理解</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/85ukf?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6/29</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7/06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>兼職講師(ESG、TOEIC、數位行銷、社群行銷、專案管理、人力資源、程式語言、AI人工智慧、大數據分析等)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>晴仁數位文化有限公司</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>其他教育服務業</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>台北市大安區</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>4年以上</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>長期徵求各類有經驗講師，需求如下
 1.ESG相關
@@ -837,108 +769,108 @@
 8.AI人工智慧</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7c7z6?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>資料庫工程師</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>小村日和有限公司</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>婚紗服務業</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>新北市永和區</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>月薪40,000~48,000元</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>月薪50,000~58,000元</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>學歷不拘</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>【公司簡介】
 我們是一家領先的親子攝影公司，致力於捕捉和保存每一個珍貴的家庭時刻。隨著業務的擴展，我們正在尋找一位專精於Python的資料庫工程師，來協助我們架構並維護公司的資料庫系統，確保數據的安全性和高效性，也帶給客戶更多的便利性。
 【職位</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8db6v?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>【確信諮詢服務】碳平台軟體工程師</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>勤業眾信聯合會計師事務所</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>會計服務業</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>台北市信義區</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>1.設計、開發和維護碳管理的網頁平台的前端界面，確保良好的用戶體驗。
 2.與後端服務進行接口對接，確保數據的準確傳輸和顯示。
@@ -947,90 +879,143 @@
 5.與團隊合作，進</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8dfw9?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>7/03</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>資深Web後端工程師</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>沛然資訊有限公司</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>電腦軟體服務業</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>台北市內湖區</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>年薪1,200,000~2,000,000元</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>1. 負責金融投資決策網站的開發與維護，確保系統穩定與安全。
 2. 負責開發金融交易演算法程式。
 3. 使用Python或Node.js語言開發後端RESTful API，確保數據的穩定與高效。</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8d7ui?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[CMS] Factor Product Manager</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光寶科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>消費性電子產品製造業</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>MySQL、PostgreSQL）、Python資料處理庫（如Pandas、NumPy）等，以實現數據的清理、轉換和整合。
+3. 具備深入理解不同數據格式和結構的能力，能夠快速識別並解決數據轉換過程中的問題和挑戰，包括處理缺失數據、處理異常值、解析複雜數據</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8d7ui?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8b6f7?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7/01</t>
+          <t>7/04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[CMS] Factor Product Manager</t>
+          <t>資料分析工程師</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>光寶科技股份有限公司</t>
+          <t>正瀚生技股份有限公司</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>消費性電子產品製造業</t>
+          <t>農藝及園藝業</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>南投縣南投市</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1040,122 +1025,69 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>MySQL、PostgreSQL）、Python資料處理庫（如Pandas、NumPy）等，以實現數據的清理、轉換和整合。
-3. 具備深入理解不同數據格式和結構的能力，能夠快速識別並解決數據轉換過程中的問題和挑戰，包括處理缺失數據、處理異常值、解析複雜數據</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8b6f7?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>7/04</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>資料分析工程師</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>正瀚生技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>農藝及園藝業</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>南投縣南投市</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3年以上</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>學歷不拘</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>1. 熟悉SAS、R、Python其中一種軟體應用及BI儀表板功能
 2. 具備資料統計分析、數據挖掘（Data Mining）、大數據處理分析能力
 3. 實際負責過分析營運或工廠數據中有用之關聯特性、製程改善、資料探勘統計數據解讀、市場趨勢報告製</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8aivf?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6/26</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>【數位資訊】數據工程師 Data Engineer</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>台新綜合證券股份有限公司</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>證券及期貨業</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Java、Python
 2.熟悉MSSQL或MySQL
@@ -1166,54 +1098,54 @@
 2.對大數據平台建置及程式開發有經驗或</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7asp1?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AI 主任工程師</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AI Supervisor</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>承展國際股份有限公司</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>其他紡織製品製造業</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>台北市松山區</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>1. 開發和部署AI模型和演算法。
 2. 分析和處理大型數據集，並進行數據清洗和特徵工程。
@@ -1222,54 +1154,54 @@
 5. 研究最新的AI技術趨勢，並將</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8dopv?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>富邦綜合保代-商業數據分析師</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>富邦綜合保險代理人股份有限公司</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>人身保險業</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>台北市中正區</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t xml:space="preserve">1.熟悉統計學知識與良好邏輯思維能力，可正確理解使用數據。
 2.須能獨立進行數據分析工作及進行數據建模、分析和預測，並提供分析報告與建議。
@@ -1277,46 +1209,98 @@
 </t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/86dw1?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7/08</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>［MKT］資深CRM數據分析師/ 資深品牌數據分析顧問</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>91APP_英屬開曼群島商九一應用軟體股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>台北市南港區</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>年薪650,000~1,300,000元</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4年以上</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>值服務與顧問服務的面向，例如：金/物流/客服代營運、購物官網/外部電商通路代營運、數位廣告投放、CRM經營數據分析...等，統稱「360品牌數位代營運」服務(https://www.91app.com/360-tp-operation/)，由此創造</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/86dw1?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8dbp5?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6/30</t>
+          <t>7/09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>［MKT］資深CRM數據分析師/ 資深品牌數據分析顧問</t>
+          <t>資料分析師 Data Analyst-助理</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>91APP_英屬開曼群島商九一應用軟體股份有限公司台灣分公司</t>
+          <t>華聚會計師事務所</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>會計服務業</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>台北市南港區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>年薪650,000~1,300,000元</t>
+          <t>月薪30,000~40,000元</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1325,58 +1309,6 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>值服務與顧問服務的面向，例如：金/物流/客服代營運、購物官網/外部電商通路代營運、數位廣告投放、CRM經營數據分析...等，統稱「360品牌數位代營運」服務(https://www.91app.com/360-tp-operation/)，由此創造</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8dbp5?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>資料分析師 Data Analyst-助理</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>華聚會計師事務所</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>會計服務業</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>台北市中山區</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>月薪30,000~40,000元</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 必備條件： 
@@ -1389,54 +1321,54 @@
 4. 自動化程式推行/</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/80g1d?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>7/03</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>【婕洛妮絲】AI演算法分析工程師</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>婕洛妮絲_全球昕兆國際股份有限公司</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>綜合商品批發代理業</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>新北市中和區</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>1. 對數據分析及程式撰寫有強烈熱誠，能將資料轉化為資訊。進行軟體之測試與修改。
 2. 具資料結構，資料探勘，資料分析實務經驗，具基礎程式能⼒。
@@ -1444,46 +1376,99 @@
 4. C++,</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8aevd?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>資訊系統工程師</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>台灣保來得股份有限公司</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>金屬鍛造及粉末冶金業</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>苗栗縣竹南鎮</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.SAP系統運作維護：主數據資料維護、模組功能維護、BI資料報表開發、使用者問題排除。
+2.資訊系統規劃維護：EIP/電子簽核/文管、使系統開發維護作業符合資訊安全管理規範。</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8aevd?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7v2jc?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7/02</t>
+          <t>7/09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>資訊系統工程師</t>
+          <t>AI軟體工程師</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>台灣保來得股份有限公司</t>
+          <t>美維科技股份有限公司</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>金屬鍛造及粉末冶金業</t>
+          <t>其他醫療保健服務業</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>苗栗縣竹南鎮</t>
+          <t>高雄市前鎮區</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪35,000~50,000元</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1492,113 +1477,60 @@
         </is>
       </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t>1.SAP系統運作維護：主數據資料維護、模組功能維護、BI資料報表開發、使用者問題排除。
-2.資訊系統規劃維護：EIP/電子簽核/文管、使系統開發維護作業符合資訊安全管理規範。</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7v2jc?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>AI軟體工程師</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>美維科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>其他醫療保健服務業</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>高雄市前鎮區</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>月薪35,000~50,000元</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>1. 數據研究，解析出住民躺在病床上的行為特性。
 2. 熟悉Python程式語言。
 3. 具備良好的學習能力，並且熱於分享。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/859kv?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>6/26</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>【徵才】敏求智慧運算學院高階研究人力進用公告-臨床AI高階工程師</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>國立成功大學_敏求智慧運算學院</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>大專校院教育事業</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>台南市東區</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>月薪55,000~159,500元</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>1.	臨床資料分析: 臨床病歷資料大型語言模式開發、臨床資料研究等相關方法及流程的分 
         析和建立。
@@ -1607,54 +1539,54 @@
 4</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/87w6s?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>數據科學主管</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>杏豐實業股份有限公司</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>藥品／化妝品及清潔用品零售業</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>新北市三重區</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>1. 跨平台數據收集、整理、相容整合與管理。
 2. 運用ETL、Python..等相關工具，確保公司數據可用性。 
@@ -1662,54 +1594,54 @@
 4. 熟悉on line</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8camq?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>7/01</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>大數據AI工程師</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>玉晶光電股份有限公司</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>光電產業</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>台中市大雅區</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>1. 負責設計和開發大數據分析和機器學習技術。
 2. 根據企業需求，參與大數據AI應用方案的開發、維護、優化、部署和測試。
@@ -1717,54 +1649,54 @@
 4. 根據專案需求，深入研究大數據和機器學習技術</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8dmss?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>6/27</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7/07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>數據分析工程師</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>一卡通票證股份有限公司</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>其他金融及輔助業</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>高雄市前鎮區</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>月薪43,000~56,000元</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>1.報表系統開發與維運
 2.報表自動化開發與維運
@@ -1773,54 +1705,54 @@
 5.業務流程自動化建置與維護</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7f4az?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>7/04</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>【竹兒】醫學研究科-研究助理</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>台灣基督長老教會馬偕醫療財團法人新竹馬偕紀念醫院</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>醫院</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>新竹市</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>1.協助撰寫研究計畫、期刊論文、計畫成果報告。
 2.配合計畫之相關實驗進行及數據整理 。
@@ -1831,54 +1763,54 @@
 協</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7ofyz?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>7/01</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7/08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>【會計處】管理會計部-高級/管理師</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>輝能科技股份有限公司</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>消費性電子產品製造業</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>桃園市龜山區</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>1. 接收部門的預算調整請求，並確保以及時和準確的方式處理。
 2. 與各部門溝通解決預算相關問題。
@@ -1888,54 +1820,54 @@
 6. 編製維護管</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/833mz?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>林口長庚醫院巨量資料及統計中心招募碩士級統計分析助理共4名。</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>長庚醫療財團法人林口長庚紀念醫院_醫療人工智能核心實驗室</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>醫院</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>桃園市龜山區</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>月薪36,050元以上</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>1.  統計諮詢。
 2.  統計分析、資料處理。
@@ -1952,163 +1884,108 @@
 6.  具研究助理年資者，到職滿三個月後依敘薪標準辦理(由本院人資部審核為主)。</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/86pyq?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>6/26</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>L6126 銷售品質管理規劃分析師</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>遠傳電信股份有限公司</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>電信相關業</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>台北市內湖區</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>主要負責收集、管理和分析各類數據，以支持銷售品質管理決策和策略制定。技能上須具備數據分析技術和工具運用能力，從數據中發現趨勢和洞察，並提供實際的改進建議。
 主要職責：
 1. 分析結構、非結構化數據資料，洞察客戶行為/屬性，提出符合銷售品質管理建議</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8dhwc?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>爬蟲工程師</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>經緯控股有限公司</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>多媒體相關業</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>台北市大安區</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>遠端工作</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>【人力資源部】人才運營助理 Talent Operation Assistant</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>全曜財經資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>新北市板橋區</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>月薪34,000~45,000元</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>學歷不拘</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-職務說明：Python 開發工程師 (GPT 和網路爬蟲專案)
-職位概述：
-我們正在尋找一位熟練的 Python 開發工程師，負責開發一個能夠接入 GPT（Generative Pre-trained Transformer）API 並進行</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8dpeu?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>【人力資源部】人才運營助理 Talent Operation Assistant</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>全曜財經資訊股份有限公司</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>電腦軟體服務業</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>新北市板橋區</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>月薪34,000~45,000元</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 20%：協助招募團隊，處理招募、面試安排、人選接觸等。
@@ -2119,54 +1996,54 @@
 3. 確認自己未來的職涯方向與</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8crf4?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>7/03</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>【知名外商管理顧問公司】 Project Analyst 數據分析師</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>萬寶華企業管理顧問股份有限公司</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>人力仲介代徵</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>台北市信義區</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>1. 透過數據探索和分析： 識別關鍵業務指標和趨勢，支持決策制定和戰略規劃。
 2. 建立和維護數據庫： 確保數據的準確性、完整性和可用性，支持公司日常運營需求。
@@ -2174,54 +2051,109 @@
 4. 創建</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/854ye?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>6/27</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>【作業板塊】營運作業規劃人員_I00011733</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>銀行業</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1.透過數據分析等客觀工具或方法，提出具體方案，提升營運效能。
+2.存匯流程現況分析及優化改造，協調可得資源，進行跨單位溝通，以達成專案目標。
+3.存匯作業要點/規章辦法及相關表單之制訂與修訂。
+4.其他主管交辦事項。</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8cbqo?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>總公司-IT部門/數據分析及報表開發工程師</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>全國電子股份有限公司</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>電子通訊／電腦週邊零售業</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>新北市五股區</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 相關數據分析和報表開發經驗。
 03. 熟悉PHP或Python 編程語言，具備一定的系統開發能力。
@@ -2230,54 +2162,165 @@
 06. 對no-</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8cam8?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>【風險諮詢】金融犯罪風險資料分析顧問</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>勤業眾信聯合會計師事務所</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>會計服務業</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1. 透過金融交易數據分析，提供金融犯罪、行為風險等管理諮詢服務
+2. 新興科技風險管理、金融犯罪管控、網路犯罪管控、金融業業務流程創新研究
+3. 專案經驗傳承、專案文件管理
+4. 其他專案指派及交辦事項</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8cam8?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7f2i9?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>C6633 【心生活】數據行銷專員</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>遠傳電信股份有限公司</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>電信相關業</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>強、對於解決陌生問題樂此不疲的你，加入我們這個快速成長的成長駭客團隊。
+【Responsibilities】
+- 以「流量成長」與「營收成長」為目標，規劃行銷策略並落地執行
+- 透過數據將問題轉化為可行動的解決方案，並執行A/B測試驗證假說
+-</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7yxuo?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>7/01</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>數據資料分析及報表自動化人員（台中）</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>香港商滙智環球顧問有限公司台灣分公司</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>工商顧問服務業</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>台中市南屯區</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>與應用。
 5. 其他主管交辦事項作業。
@@ -2288,101 +2331,46 @@
 4. 具同產業/金融業開發經驗 或 微軟Microsoft 365</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/787uq?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>7/04</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>【作業板塊】營運作業規劃人員_I00011733</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>銀行業</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>台北市信義區</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1.透過數據分析等客觀工具或方法，提出具體方案，提升營運效能。
-2.存匯流程現況分析及優化改造，協調可得資源，進行跨單位溝通，以達成專案目標。
-3.存匯作業要點/規章辦法及相關表單之制訂與修訂。
-4.其他主管交辦事項。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8cbqo?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7/03</t>
+          <t>7/10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>醫學研究 - 數據分析師</t>
+          <t>EZ-知名跨國銀行【數據工程師】(月薪可議/大型企業福利優渥/金融科技相關)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>群健科技股份有限公司</t>
+          <t>新加坡商立可人事顧問有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>人力仲介代徵</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台北市南港區</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>遠端工作</t>
+          <t>月薪40,000元以上</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2391,173 +2379,6 @@
         </is>
       </c>
       <c r="I35" t="inlineStr">
-        <is>
-          <t>識，能熟練運用程式語言處理和分析大量數據，並能夠清晰地將研究成果溝通給醫療專業人員。
-主要職責：
-1. 數據分析與統計：
-- 使用統計軟件和程式語言（如R, Python等）進行數據處理和分析。
-- 分析病人治療數據，識別模式，並針對治療方法提供</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8bmxq?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>7/03</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>【風險諮詢】金融犯罪風險資料分析顧問</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>勤業眾信聯合會計師事務所</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>會計服務業</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>台北市信義區</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1. 透過金融交易數據分析，提供金融犯罪、行為風險等管理諮詢服務
-2. 新興科技風險管理、金融犯罪管控、網路犯罪管控、金融業業務流程創新研究
-3. 專案經驗傳承、專案文件管理
-4. 其他專案指派及交辦事項</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7f2i9?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>C6633 【心生活】數據行銷專員</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>遠傳電信股份有限公司</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>電信相關業</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>台北市內湖區</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>強、對於解決陌生問題樂此不疲的你，加入我們這個快速成長的成長駭客團隊。
-【Responsibilities】
-- 以「流量成長」與「營收成長」為目標，規劃行銷策略並落地執行
-- 透過數據將問題轉化為可行動的解決方案，並執行A/B測試驗證假說
--</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7yxuo?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>EZ-知名跨國銀行【數據工程師】(月薪可議/大型企業福利優渥/金融科技相關)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>新加坡商立可人事顧問有限公司台灣分公司</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>人力仲介代徵</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>台北市南港區</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>月薪40,000元以上</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
         <is>
           <t>【職務內容】
 1. 運用內外部新形態數據建立模型特徵資料庫、與IT協作採集關鍵數據並優化模型特徵數據運算效能。
@@ -2565,107 +2386,107 @@
 3. 負責推動機器思考模型自動佈署及迭代之系統建設(MLOps &amp; Auto-</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8do9v?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>7/01</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>氣候變遷永續農業水資源領域大數據分析-研究專員</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>財團法人台灣水資源與農業研究院</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>其他教育服務業</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>新北市淡水區</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>1.從事水資源管理、風險評估、水文水理分析。
 2.專案計畫研究數據分析與報告撰寫。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/897dv?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>7/03</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>【資訊作業管制科】數據分析師</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>台新人壽保險股份有限公司_總公司</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>人身保險業</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>台北市松山區</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>1.	運用資料進行視覺化報表/儀表板設計、開發、維護。
 2.	與需求單位(如：資訊/業務/行政…等)使用者進行訪談，協助釐清並理解需求，設計出合適的可視化解決方案。
@@ -2673,54 +2494,54 @@
 4.</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/89rfb?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>7/03</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>〔個金〕客群-數據規劃師(專案)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>台新金控_台新國際商業銀行股份有限公司</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>銀行業</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>台北市大安區</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>參與規劃與執行全行大數據之應用、導入、加值運算，加速對用戶/行為洞察，並發展出可執行的商業應用情境與模式：
 1.負責數據相關重大專案，結合跨單位資源與外部廠商協調協作。 
@@ -2728,31 +2549,194 @@
 3.</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7cine?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Docker/Kubernetes(K8s)架構與研發工程師</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>台灣智慧技術研發股份有限公司</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>職位描述：
+我們正在尋找一位經驗豐富的GPU算力平台開發工程師，加入我們的技術團隊。該工程師將負責設計、開發和優化基於GPU的高性能計算平台，以支持我們的深度學習、數據處理和其他計算密集型應用。
+工作內容：
+1.基於Kubernetes、</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8cdn8?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>數據分析工程師</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>龍騰文化事業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>書籍出版業</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>新北市五股區</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>月薪50,000元以上</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1.規劃資料處理分析流程、各項資料分析模型與演算法
+2.與相關單位訪談、蒐集與規劃各項分析需求
+3.分析用戶行爲及業務數據，即時發現數據中潜在問題/商機，並出具數據分析/數據挖掘報告
+4.負責建置data warehouse，開發及設計BI分析報</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7n23z?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6/28</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ESG永續資料分析_副研究員</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>台灣經濟新報文化事業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>工商顧問服務業</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1. 將SQL或EXCEL財務及ESG相關資料導入Python，進行檢查、分析或依據法規、準則規範衍生加值數據，提供與客戶使用。
+2. 研究各類ESG相關法規、準則及公報（TCFD、TNFD、PCAF等），透過公開揭露的ESG資料，衍生成客戶所需</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7cine?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7ky4o?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6/28</t>
+          <t>7/05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>數據分析專員</t>
+          <t>資料工程師 Data Engineer / Analyst (行銷本部)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>力獅國際貿易股份有限公司</t>
+          <t>東南旅行社股份有限公司</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>其他商品批發業</t>
+          <t>旅遊服務業</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2762,12 +2746,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪50,000~70,000元</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2776,173 +2760,60 @@
         </is>
       </c>
       <c r="I42" t="inlineStr">
-        <is>
-          <t>1.運用資料進行視覺化報表/儀表板設計、開發、維護。
-2.與需求單位(如：資訊/業務/行政…等)使用者進行訪談，協助釐清並理解需求，設計出合適的可視化解決方案。
-3.提供數據分析和視覺化等呈現方面的建議跟支持，幫助使用者進行業務決策。
-4.協助執</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8b8j8?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>資料工程師 Data Engineer / Analyst (行銷本部)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>東南旅行社股份有限公司</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>旅遊服務業</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>台北市中山區</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>月薪50,000~70,000元</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>3年以上</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
         <is>
           <t>目前分工模式以專案分工為主，過程涵蓋不同階段資料處理，因此需DE &amp; DA 兩種職能皆熟悉。兩種職能佔比依重點專案浮動調整，工作內容以專案執行為主，但仍需支援其他單位需求。
 Data Engineer
 1. 彙整內外部可運用數據，參與數據應用、</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8202z?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>7/03</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>半導體 | 資料分析工程師 | Data Analytics Engineer  | 工作地點: 新北市</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Tezerakt_美商立方體有限公司台灣分公司</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>工商顧問服務業</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>新北市新店區</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>3年以上</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-- 文件更新
-職務條件
-- Computer Science 或數據分析相關科系畢業
-- (必要條件):接觸過半導體製造流程 如 Foundry, Assembly , FT 與數據格式  
-- 熟Python ,SQL 與資料庫設計
-- 數據分</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8dc20?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>6/27</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>生物科技研發人員</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>醫華生技股份有限公司</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>生化科技研發業</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>新竹縣竹北市</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t xml:space="preserve">1.協助IRB實驗設計及癌症臨床資料之分析、彙整與會報。  
 2.閱讀國際期刊、文獻並歸納整理、確立與開發分析方法。 
@@ -2951,54 +2822,112 @@
 5.主管交辦事項。 </t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8aqzs?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>6/27</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>資料分析工程師 | Data Analytics Engineer | 半導體  | 工作地點: 新北市</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Tezerakt_美商立方體有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>工商顧問服務業</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>新北市新店區</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+- 文件更新
+職務條件
+- Computer Science 或數據分析相關科系畢業
+- (必要條件):接觸過半導體製造流程 如 Foundry, Assembly , FT 與數據格式
+- 熟Python ,SQL 與資料庫設計
+- 數據分析經</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8dc20?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>大數據工程師</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>創域科技有限公司</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>電腦軟體服務業</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>台北市內湖區</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>學歷不拘</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>工作職責
 1 負責大數據及報表體系的搭建
@@ -3010,54 +2939,54 @@
 4 熟悉</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8czm0?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>6/27</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>JKR100-AI Software Engineer 實習生</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>啟碁科技股份有限公司</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>通訊機械器材相關業</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>新竹市</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>月薪30,000元以上</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>型或演算法與整體解決方案以利於部屬 
 [必備專長技能]
@@ -3067,54 +2996,54 @@
 3. 熟悉任一機器學習框架函式庫</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/80h77?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>【研究發展處】大數據資料處理工程師</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>現觀科技股份有限公司</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>電腦軟體服務業</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>月薪35,000~55,000元</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t xml:space="preserve">1.開發大數據系統資料處理平台 
 2.串流資料平行化處理程序開發，熟悉分散式運算、平行運算 
@@ -3125,54 +3054,54 @@
 </t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7bdre?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>6/27</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7/07</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>數據分析工程師</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>一卡通票證股份有限公司</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>其他金融及輔助業</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>高雄市前鎮區</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>月薪43,000~56,000元</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>1.報表系統開發與維運
 2.報表自動化開發與維運
@@ -3181,70 +3110,123 @@
 5.業務流程自動化建置與維護</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7f4az?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7/08</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>新聞部大數據中心數據分析師</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>中天電視股份有限公司</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>廣播電視節目供應業</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>台北市內湖區</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t xml:space="preserve">1.蒐集新媒體平台數據
 2.製作數據分析報告
 </t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7zdou?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10/20</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>量化研究員 Quantitative Finance Researcher, Cubist Systematic Strategies / Point72 (Taipei)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>美商博灝台灣研究有限公司</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>工商顧問服務業</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>年薪1,800,000元以上</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>量化研究員將被賦予獨立進行量化研究的職責，聚焦於建立統計與預測模型。成功的研究員將管理完整的研究流程，包括方法挑選、資料蒐集與分析、建立模型原型、回測、及效能監控。 
+Quantitative Researchers are responsible for independently conducting quantitative financial research with a focus on statistical and predictive models. Successful researchers manage all aspects of the research process including methodology selection, data collection and analysis, testing, prototyping, backtesting, and performance monitoring.</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7zdou?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/6nsq5?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6/28</t>
+          <t>7/05</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3300,32 +3282,32 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10/20</t>
+          <t>7/04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>量化研究員 Quantitative Finance Researcher, Cubist Systematic Strategies / Point72 (Taipei)</t>
+          <t>【竹兒】醫學研究科-研究助理</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美商博灝台灣研究有限公司</t>
+          <t>台灣基督長老教會馬偕醫療財團法人新竹馬偕紀念醫院</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>工商顧問服務業</t>
+          <t>醫院</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>新竹市</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>年薪1,800,000元以上</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3335,63 +3317,10 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
-        <is>
-          <t>量化研究員將被賦予獨立進行量化研究的職責，聚焦於建立統計與預測模型。成功的研究員將管理完整的研究流程，包括方法挑選、資料蒐集與分析、建立模型原型、回測、及效能監控。 
-Quantitative Researchers are responsible for independently conducting quantitative financial research with a focus on statistical and predictive models. Successful researchers manage all aspects of the research process including methodology selection, data collection and analysis, testing, prototyping, backtesting, and performance monitoring.</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/6nsq5?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>7/04</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>【竹兒】醫學研究科-研究助理</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>台灣基督長老教會馬偕醫療財團法人新竹馬偕紀念醫院</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>醫院</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>新竹市</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>碩士</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
         <is>
           <t>1.協助撰寫研究計畫、期刊論文、計畫成果報告。
 2.配合計畫之相關實驗進行及數據整理 。
@@ -3402,54 +3331,54 @@
 協</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7ofyz?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>6/27</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>總公司-IT部門/數據分析及報表開發工程師</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>全國電子股份有限公司</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>電子通訊／電腦週邊零售業</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>新北市五股區</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t xml:space="preserve"> 相關數據分析和報表開發經驗。
 03. 熟悉PHP或Python 編程語言，具備一定的系統開發能力。
@@ -3458,54 +3387,54 @@
 06. 對no-</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8cam8?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>7/01</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7/08</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>【會計處】管理會計部-高級/管理師</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>輝能科技股份有限公司</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>消費性電子產品製造業</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>桃園市龜山區</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>1. 接收部門的預算調整請求，並確保以及時和準確的方式處理。
 2. 與各部門溝通解決預算相關問題。
@@ -3515,54 +3444,54 @@
 6. 編製維護管</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/833mz?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>林口長庚醫院巨量資料及統計中心招募碩士級統計分析助理共4名。</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>長庚醫療財團法人林口長庚紀念醫院_醫療人工智能核心實驗室</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>醫院</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>桃園市龜山區</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>月薪36,050元以上</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>1.  統計諮詢。
 2.  統計分析、資料處理。
@@ -3579,54 +3508,54 @@
 6.  具研究助理年資者，到職滿三個月後依敘薪標準辦理(由本院人資部審核為主)。</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/86pyq?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>資深數據分析師 【ETL數據分析師 】</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>邁達特數位股份有限公司</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>電腦軟體服務業</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>台北市內湖區</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t xml:space="preserve">1.數據收集、盤點與管理。
 2.數據ETL開發、測試與維護。
@@ -3635,9 +3564,66 @@
 </t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7oyn3?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>數據分析師</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>暘昇資訊有限公司</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>台北市松山區</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1. 資料倉儲管理與數據中心建置。
+2. 根據市場與客戶所需, 提供數據分析結果。
+3. 針對需求可提出解決方案與技術可行性評估 。
+4. 營運上相關數據分析, 如會員行為模式分析，提出分群描述及預測模型。
+5. 撰寫機率模組演算程式。
+6. 熟</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7oyn3?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/81zzq?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -3704,17 +3690,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>7/09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>數據分析師</t>
+          <t>資料分析師(FAT)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>暘昇資訊有限公司</t>
+          <t>德義資訊股份有限公司</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3724,7 +3710,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3734,128 +3720,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
-        <is>
-          <t>1. 資料倉儲管理與數據中心建置。
-2. 根據市場與客戶所需, 提供數據分析結果。
-3. 針對需求可提出解決方案與技術可行性評估 。
-4. 營運上相關數據分析, 如會員行為模式分析，提出分群描述及預測模型。
-5. 撰寫機率模組演算程式。
-6. 熟</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/81zzq?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>7/03</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>醫學研究 - 數據分析師</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>群健科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>電腦軟體服務業</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>台北市中山區</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>遠端工作</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>3年以上</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>識，能熟練運用程式語言處理和分析大量數據，並能夠清晰地將研究成果溝通給醫療專業人員。
-主要職責：
-1. 數據分析與統計：
-- 使用統計軟件和程式語言（如R, Python等）進行數據處理和分析。
-- 分析病人治療數據，識別模式，並針對治療方法提供</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8bmxq?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>資料分析師(FAT)</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>德義資訊股份有限公司</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>電腦軟體服務業</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>台北市內湖區</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
         <is>
           <t>一、職務內容：
 1、要資料收集與整理：負責資料的收集與整理，確保數據的準確性和完整性。
@@ -3864,36 +3737,148 @@
 二、必備</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8cwg4?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>【數位轉型處】數據分析師</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>錠嵂保險經紀人股份有限公司</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>人身保險業</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>台北市松山區</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>月薪40,000元以上</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 依據業務領域，使用分析工具(如:Tableau)，將資料視覺化及建立模型。
+2. 因應組織策略，洞察數據價值，提供產品趨勢或解決方案，作為營運決策參考。
+3. 了解內部整體所有資訊流，資料探勘及分析，挖掘對內對外應用發展價值。
+</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7xk0f?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>數據工程師 【資料分析應用處】</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>邁達特數位股份有限公司</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.	因應客戶需求進行資料倉儲/資料超市設計與規劃。
+2.	數據收集、盤點與管理。
+3.	資料庫效能調教。
+4.	數據ETL開發、測試與維護。
+5.	利用ETL工具或T-SQL或Stored Procedure開發。
+</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8cwg4?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/82jky?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6/28</t>
+          <t>7/09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>資深數據分析師 【ETL數據分析師/高雄 】</t>
+          <t>Integration manager [串接專案管理師]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>邁達特數位股份有限公司</t>
+          <t>藍窗科技有限公司</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>網際網路相關業</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>高雄市左營區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3903,7 +3888,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3912,336 +3897,167 @@
         </is>
       </c>
       <c r="I62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.數據收集、盤點與管理。
-2.數據ETL開發、測試與維護。
-3.利用ETL工具或T-SQL或Stored Procedure開發。
-4.因應客戶需求進行資料倉儲/資料超市設計與規劃。
-</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7oyn9?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>科技金融_商業分析師</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中國信託商業銀行股份有限公司</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>銀行業</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>台北市南港區</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>碩士</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1.負責&lt;數據運營、智能驅動&gt;策略與應用規劃
-2.以數據分析洞察客戶需求/行為/偏好、描畫客戶標籤畫像，提供以數據科技為基礎之商業解決方案
-3.熟悉個人金融商品，包含財富管理、信用卡與消貸，提供前台(行銷獲客)、中台(風險管理)、後台(客戶服務)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/74wrb?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>運動生物力學數據分析師</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>威亘企業有限公司</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>綜合商品批發代理業</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>台北市大安區</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>月薪38,000元以上</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 受測人員聯絡與安排
-2. 根據團隊目的設計檢測流程
-3. 儀器操作與確保資料擷取品質
-4. 檢測訊號處理與計算
-5. 撰寫結果分析與洞察報告
-6. 檢索國內外相關文獻
-7. 主管交辦其他事項
-</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7lqdz?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Integration manager [串接專案管理師]</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>藍窗科技有限公司</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>網際網路相關業</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>台北市松山區</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
         <is>
           <t>、系統準備、交付以及維護運營商的技術文檔。
 3.收集運營商的特定要求和訪問數據，並將其傳遞給產品負責人進行內部安排，然後跟進研發團隊確保後續開發能夠順利進行。
 4.創建和維護客戶對接Confluence頁面。頁面包含項目狀態，客戶聯繫方式和 對接項</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/6l6c7?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>6/20</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>(大數據)零售研究員/資深研究員</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>東方線上股份有限公司</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>工商顧問服務業</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>台北市大安區</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>要工作，你會經手大量的資料(Big data)整理並進行巨量數據分析，因此需要有良好且熟稔的處理big data技巧(如Python或R)，並且熟悉零售通路的促銷手法。從資料中進行歸納與分析，彙整成最完整的品牌銷售狀況。
 這份工作會讓你知道市場上哪</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/3o5cn?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>數據分析師</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>鈊象電子股份有限公司</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>網際網路相關業</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>新北市五股區</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>月薪30,000~60,000元</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>1.精通統計理論相關知識，並有數據分析實際經驗
 2.能運用R或Python進行數據分析或具備相關分析經驗者
 3.熟悉操作資料庫工具</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/6hv7d?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>5/15</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>【凱基證券/衍生性商品部】量化分析交易人員</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>凱基證券股份有限公司</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>證券及期貨業</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>1. 衍生性商品造市與避險之交易執行
 2. 現股及衍生性商品之數據分析
@@ -4249,215 +4065,161 @@
 4. 建置相關資料庫以協助交易策略開發</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7zth9?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>資料工程師 (研發處)</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>104人力銀行_一零四資訊科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>網際網路相關業</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>新北市新店區</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>月薪50,000元以上</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>4年以上</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>我們在尋找一位充滿熱情、具有強烈學習意願和創新思維的資料工程師。
-理想的候選人應該對處理和分析大規模數據集有深厚的興趣，並且樂於探索新技術來解決複雜的問題。
-我們需要的是一位能夠在快速變化的環境中適應和成長，同時與團隊緊密合作以實現共同目標的夥伴</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/892tc?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>地圖資訊系統專員 Transport GIS Specialist</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>美商愛思捷科技有限公司台灣分公司</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>工商顧問服務業</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>月薪40,000元以上</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>1. 空間數據分析：收集、管理和分析與交通網路、交通模式和城市基礎設施相關的空間數據。
 2. GIS製圖：創建和維護詳細的地圖和空間數據庫，以支持交通規劃和決策過程。
 3. 交通建模：開發和實施交通模型，以模擬和預測交通流量並識別潛在的改進措施。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8ckd8?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>7/02</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>個金_資料分析人員</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>中國信託商業銀行股份有限公司</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>銀行業</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>台北市南港區</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>1.營運資料及專案成效分析，以策略顧問模式進行內外部報告
 2.規劃數據運營端到端(end to end)流程，提出創新金融業務應用模式</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/3rp7f?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>7/01</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>7/08</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>數據分析工程師</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>錼創顯示科技股份有限公司</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>半導體製造業</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>苗栗縣竹南鎮</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>一、對數據分析及程式撰寫有強烈熱誠，能將資料轉化為資訊。
 二、具資料結構，資料探勘，資料分析實務經驗，具基礎程式能⼒。
@@ -4466,108 +4228,162 @@
 五、</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8a6xh?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>5/15</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>7/09</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>資料工程師 (研發處)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>104人力銀行_一零四資訊科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>新北市新店區</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>月薪50,000元以上</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4年以上</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>我們在尋找一位充滿熱情、具有強烈學習意願和創新思維的資料工程師。
+理想的候選人應該對處理和分析大規模數據集有深厚的興趣，並且樂於探索新技術來解決複雜的問題。
+我們需要的是一位能夠在快速變化的環境中適應和成長，同時與團隊緊密合作以實現共同目標的夥伴</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/892tc?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>數據分析師</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>上海商業儲蓄銀行股份有限公司</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>銀行業</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>1.利用數據分析語言，執行基本數據挖掘、資料清洗、數據分析及驗證程序，自主或協助資料需求單位釐清問題並提出建議。
 2.透過Tableau等資料視覺化工具，將資料分析結果做成商業圖表，並維護及更新資料儀表板。
 3.產製數位產品之效益數字、預測客戶商</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8ayj0?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>ESG管理工程師</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>強茂股份有限公司</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>半導體製造業</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>高雄市岡山區</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>月薪40,000元以上</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>1年以上</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>1. SGS認證工作包含ISO14064/ISO14067/ISO50001/ISO46001
 2. 碳能系統管理
@@ -4575,54 +4391,54 @@
 4. 節能減碳專案推廣</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/895rh?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>7/01</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7/08</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>數位發展主管(總部)</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>頂立開發實業股份有限公司</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>工商顧問服務業</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>5年以上</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>1. 建構數據導向的商業解決方案，串接集團內部各項事業之營運管理。
 2. 進行數據建模、分析和預測，並提供策略性建議。
@@ -4630,54 +4446,54 @@
 4. 開發數據模型，協助提升整體數據技術運用能力。</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/84zus?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>數據分析專員</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>力獅國際貿易股份有限公司</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>其他商品批發業</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>1.運用資料進行視覺化報表/儀表板設計、開發、維護。
 2.與需求單位(如：資訊/業務/行政…等)使用者進行訪談，協助釐清並理解需求，設計出合適的可視化解決方案。
@@ -4685,166 +4501,278 @@
 4.協助執</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8b8j8?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>6/28</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>資料工程師 Data Engineer / Analyst (行銷本部)</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>東南旅行社股份有限公司</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>旅遊服務業</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>月薪50,000~70,000元</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>目前分工模式以專案分工為主，過程涵蓋不同階段資料處理，因此需DE &amp; DA 兩種職能皆熟悉。兩種職能佔比依重點專案浮動調整，工作內容以專案執行為主，但仍需支援其他單位需求。
 Data Engineer
 1. 彙整內外部可運用數據，參與數據應用、</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8202z?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>7/03</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>半導體 | 資料分析工程師 | Data Analytics Engineer  | 工作地點: 新北市</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>生物科技研發人員</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>醫華生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>生化科技研發業</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>新竹縣竹北市</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.協助IRB實驗設計及癌症臨床資料之分析、彙整與會報。  
+2.閱讀國際期刊、文獻並歸納整理、確立與開發分析方法。 
+3.根據數據分析結果訂定疾病風險評估的閾值。 
+4.檢體收案進度追蹤、實驗流程之參與品質掌控 。 
+5.主管交辦事項。 </t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8aqzs?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>資料分析工程師 | Data Analytics Engineer | 半導體  | 工作地點: 新北市</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>Tezerakt_美商立方體有限公司台灣分公司</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>工商顧問服務業</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>新北市新店區</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 - 文件更新
 職務條件
 - Computer Science 或數據分析相關科系畢業
-- (必要條件):接觸過半導體製造流程 如 Foundry, Assembly , FT 與數據格式  
+- (必要條件):接觸過半導體製造流程 如 Foundry, Assembly , FT 與數據格式
 - 熟Python ,SQL 與資料庫設計
-- 數據分</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
+- 數據分析經</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8dc20?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>6/27</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7/05</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>數據DevOps工程師</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>艾捷科技有限公司</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>台中市南屯區</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1. 維運雲端的Data pipelien 與數據平台系統服務。
+2. 協助設計、部署與維護雲端基礎架構
+3. 容器平台(Kubernetes)系統規劃、管理及監控。
+4. 建置自動化CI/CD之解決方案，執行更版與部署作業。
+5. 建置與維護監</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8diz0?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>[PG] 媒體發佈商實習生 Publisher Growth Intern【非暑期工讀】</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>AnyMind Group_新加坡商艾雅思股份有限公司台灣分公司</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>廣告行銷公關業</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>台北市信義區</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>時薪183元</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>高中</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>成效報告製作翻譯
 2. 市場分析
@@ -4857,41 +4785,100 @@
 4. 過去有在應用程式公司實習者為</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/86f8y?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7/04</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>大數據工程師</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>創域科技有限公司</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>學歷不拘</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>工作職責
+1 負責大數據及報表體系的搭建
+2 負責batch類計算和流式計算體系的搭建
+任職要求
+1 對大數據體系有深入認知，尤其olap體系
+2 對clickhouse等常用olap數倉有深入理解
+3 對常用job調度系統有深入理解
+4 熟悉</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/86f8y?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8czm0?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>7/04</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>生物科技研發人員</t>
+          <t>JKR100-AI Software Engineer 實習生</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>醫華生技股份有限公司</t>
+          <t>啟碁科技股份有限公司</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>生化科技研發業</t>
+          <t>通訊機械器材相關業</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>新竹縣竹北市</t>
+          <t>新竹市</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪30,000元以上</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4906,53 +4893,54 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.協助IRB實驗設計及癌症臨床資料之分析、彙整與會報。  
-2.閱讀國際期刊、文獻並歸納整理、確立與開發分析方法。 
-3.根據數據分析結果訂定疾病風險評估的閾值。 
-4.檢體收案進度追蹤、實驗流程之參與品質掌控 。 
-5.主管交辦事項。 </t>
+          <t>型或演算法與整體解決方案以利於部屬 
+[必備專長技能]
+1. 熟悉 Python 程式語言
+2. 熟悉任一數據處理框架函式庫
+    - 包含但不限於 Numpy、Pandas、Xarray、Spark
+3. 熟悉任一機器學習框架函式庫</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8aqzs?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/80h77?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>7/05</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>數據DevOps工程師</t>
+          <t>【研究發展處】大數據資料處理工程師</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>艾捷科技有限公司</t>
+          <t>現觀科技股份有限公司</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>電腦系統整合服務業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>台中市南屯區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪35,000~55,000元</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4962,96 +4950,100 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1. 維運雲端的Data pipelien 與數據平台系統服務。
-2. 協助設計、部署與維護雲端基礎架構
-3. 容器平台(Kubernetes)系統規劃、管理及監控。
-4. 建置自動化CI/CD之解決方案，執行更版與部署作業。
-5. 建置與維護監</t>
+          <t xml:space="preserve">1.開發大數據系統資料處理平台 
+2.串流資料平行化處理程序開發，熟悉分散式運算、平行運算 
+3.解決大量資料處理時所衍生的效能、擴充、與維護問題 
+4.具有大數據資料解析程式開發能力 
+5.與其他系統開發工作團隊配合 
+6.能獨立作業，抗壓性高  
+</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8diz0?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7bdre?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6/28</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>〔金控〕氣候風險管理人員 (台北)</t>
+          <t>【校園徵才-暑期/學期實習】數據分析與軟體設計工程師(竹南/台南)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>台新金控_台新國際商業銀行股份有限公司</t>
+          <t>Phison Electronics Corp_群聯電子股份有限公司</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>IC設計相關業</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>苗栗縣竹南鎮</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪27,470~60,000元</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1.	建置及執行氣候風險管理機制，包含整體架構，實務運作執行等等。如氣候風險胃納設計、整理分析跨組織氣候風險相關數據 (高碳排產業、壓測財務衝擊等)、設計氣候風險管理對接既有風險(信用/市場/作業)之風險管理。
-2.	跨組織溝通及資料蒐集彙整，執</t>
+          <t>1. 韌體驗證自動化與大數據分析。
+2. 演算法設計與效能優化。
+3. 程式碼分析與設計輔助軟體。
+※可配合課表需求彈性排班</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7ub48?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7qdth?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>7/08</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AI影像訊號處理演算法工程師</t>
+          <t>新聞部大數據中心數據分析師</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>博晶醫電股份有限公司</t>
+          <t>中天電視股份有限公司</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>其它軟體及網路相關業</t>
+          <t>廣播電視節目供應業</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>新北市新店區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5061,7 +5053,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5071,44 +5063,41 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>工作說明 :
-1. 開發新演算法或改進現有演算法，用於各種健康評估、活動和行為識別。
-2. 分析臨床數據庫或生物傳感器收集的（通常是連續動態的）數據。
-3. 使用C/Python語言開發GoMore產品相關演算法。
-職務要求 :
-1. 2年以上</t>
+          <t xml:space="preserve">1.蒐集新媒體平台數據
+2.製作數據分析報告
+</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8dj4i?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7zdou?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>5/16</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DBA資料庫與數據工程師【擴編】</t>
+          <t>RD21379 雲端大數據工程師</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>晉瑜企業股份有限公司</t>
+          <t>華碩電腦股份有限公司</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>水泥及水泥製品製造業</t>
+          <t>電腦及其週邊設備製造業</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>台北市北投區</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5118,7 +5107,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5128,47 +5117,45 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>庫相關的管理工作，您會面對大數據、巨量資料的需求(協助資料處理過程，管理轉換後的資料，監控和管理變動)，能夠不斷突破自己的技術極限！
-●資料庫系統方面  : 
-◆ 根據企業的需求進行規劃與維護資料庫結構(如表、視圖、索引、序列等)。 
-◆ 根據組</t>
+          <t>1. 處理和分析雲端平台數據
+2. 維運大數據處理系統</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8d8qi?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8658o?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6/26</t>
+          <t>10/20</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>網頁開發工程師</t>
+          <t>量化研究員 Quantitative Finance Researcher, Cubist Systematic Strategies / Point72 (Taipei)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>定磐科技股份有限公司</t>
+          <t>美商博灝台灣研究有限公司</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>工商顧問服務業</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>遠端工作</t>
+          <t>年薪1,800,000元以上</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5178,56 +5165,50 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>我們是專業的醫療資訊公司，提供各醫院臨床資訊系統解決方案，為醫療服務人員開發智能化的資訊系統，目前擴編招募『網頁開發工程師』，我們誠摯邀請有經驗的您，共同開創智慧醫療產業的新時代，也歡迎想自我挑戰的職場新鮮人一起加入我們！
-職務內容：
-    1.網頁系統bug修正
-    2.網頁系統功能開發
-    3.與PM討論瞭解客戶需求並提供解決方案
-    4.參與討論公司重點會議，必要時出差至客戶醫院現場解決問題
-    5.其他交辦事項
-    6.熟悉工作模式後可漸漸轉為居家辦公</t>
+          <t>量化研究員將被賦予獨立進行量化研究的職責，聚焦於建立統計與預測模型。成功的研究員將管理完整的研究流程，包括方法挑選、資料蒐集與分析、建立模型原型、回測、及效能監控。 
+Quantitative Researchers are responsible for independently conducting quantitative financial research with a focus on statistical and predictive models. Successful researchers manage all aspects of the research process including methodology selection, data collection and analysis, testing, prototyping, backtesting, and performance monitoring.</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8747f?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/6nsq5?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>7/08</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>資料工程師(FAT)</t>
+          <t>數據企劃專員(經營分析/數據決策專案)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>德義資訊股份有限公司</t>
+          <t>全家便利商店股份有限公司</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>量販流通相關業</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪39,000~50,000元</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5237,157 +5218,157 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>一、職務內容：
-1、擷取（Extract）：負責數據的擷取工作。
-2、轉換（Transform）：使用SQL Server的Stored Procedures進行數據轉換。
-3、載入（Load）：使用Python進行數據的載入工作。
-二、必備條</t>
+          <t>1.經營分析：針對重要經營課題，進行零售&amp;消費者數據分析，提出經營策略建議
+2.數據企劃：針對商業命題，運用內外部資料/發票進行分析，構思可對應的數據應用解決方案，並落地驗證執行
+3.數據專案管理：針對數據運用專案，進行整體性規劃與推動，包含研究</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8da7w?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/88vzq?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7/02</t>
+          <t>7/05</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>科技金融_商業分析師</t>
+          <t>【派駐聯發科/竹科E】 CPU 助理工程師</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>中國信託商業銀行股份有限公司</t>
+          <t>就業情報資訊股份有限公司</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>人力仲介代徵</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>台北市南港區</t>
+          <t>新竹市</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪40,000~50,000元</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.負責&lt;數據運營、智能驅動&gt;策略與應用規劃
-2.以數據分析洞察客戶需求/行為/偏好、描畫客戶標籤畫像，提供以數據科技為基礎之商業解決方案
-3.熟悉個人金融商品，包含財富管理、信用卡與消貸，提供前台(行銷獲客)、中台(風險管理)、後台(客戶服務)</t>
+          <t xml:space="preserve">1.C/Python programming
+2.使用溫箱, 示波器量測資料
+3.大數據資料分析
+4.操作自動化測試機台
+</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/74wrb?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8bsno?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5/15</t>
+          <t>7/10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>【凱基證券/衍生性商品部】量化分析交易人員</t>
+          <t>軟韌體自動化測試開發工程師(台中/台北)_13274</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>凱基證券股份有限公司</t>
+          <t>和碩集團_和碩聯合科技股份有限公司</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>證券及期貨業</t>
+          <t>電腦及其週邊設備製造業</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台中市北區</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪32,000~62,000元</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1. 衍生性商品造市與避險之交易執行
-2. 現股及衍生性商品之數據分析
-3. 避險及相關交易策略之研發
-4. 建置相關資料庫以協助交易策略開發</t>
+          <t>1. 規劃生產線產品測試計畫(含測試設備清單)/撰寫產測工程文件
+2. 自動化產測程式與AOI程式整合開發(C++/Android/Python/Batch &amp; Shell Script)
+3. 生產測試問題分析與誤判率改善
+4. 自動化治具與控</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7zth9?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8dijd?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7/02</t>
+          <t>7/04</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>前端軟體開發工程師-桃園(擴編)</t>
+          <t>909 - 洗錢防制專責人員</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>台灣大塚製藥股份有限公司</t>
+          <t>安泰商業銀行股份有限公司</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>其他醫療保健服務業</t>
+          <t>銀行業</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>桃園市中壢區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5397,7 +5378,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5407,41 +5388,45 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.具規畫開發雲端平台，將遠端數據資料收集之能力 
-2.熟悉下列任一程式語言 c , php , python...等 
-3.熟悉資料庫如MySQL、MSSQL...等，並了解伺服器(Windows , Linux)、資訊安全(Firewall</t>
+          <t>1.協助洗錢防制系統各模組運作之監督與管理。
+2.辦理例行AML/CFT工作(疑似洗錢/資恐交易申報、重大負面新聞人物、PEP名單蒐集等)。
+3.處理營業單位詢問之洗錢防制問題，並協助規劃業務流程。
+4.協助辦理有關洗錢防制各項模型驗證。
+5.協助專案執行。
+6.其他主管交辦事項(教育訓練、部門重要工作項目彙整等)。
+※本職缺歡迎身障人士主動投遞履歷應徵</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8dodf?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/80zfe?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>6/05</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>零售債管部-資深零售營運人員</t>
+          <t>Backend Engineer 後端軟體工程師</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>永豐商業銀行股份有限公司</t>
+          <t>圖策科技股份有限公司</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>其它軟體及網路相關業</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>台北市中正區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5451,7 +5436,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>4年以上</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5461,45 +5446,50 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>一、系統升級整合規劃及需求測試。
-二、資料庫分析運用及語法驗證。</t>
+          <t>【工作內容】
+√ 使用Python開發數據分佈建模程式
+√ 使用C/C++開發數據分佈建模程式
+【Minimum Qualifications】 
+√ 精通程式語言: Python,C/C++
+√ 3年以上程式開發經驗 
+√ 資訊工程,電機</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8dk14?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/6yoyu?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>5/09</t>
+          <t>7/03</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>程式腳本維運工程師（專業服務部V組）</t>
+          <t>國網中心_空間資訊技術研究人員-新竹(編制NCHC_112_03_09)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>中菲電腦股份有限公司</t>
+          <t>財團法人國家實驗研究院</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>政府／民意機關</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>新竹市</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪38,000~59,000元</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5509,21 +5499,21 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1. 安裝不同類型的研究開發軟體(PowerShell與Python)。
-2. 定期提供資訊維運服務管理報表(Bug list)。
-3. 良好的分析和解決問題的能力。 
-4. 按照標準處理流程進行相關作業，負責任和配合度高。
-5. 支援使用者資訊</t>
+          <t>1. 航遙測影像數據處理分析
+2. 開發機器學習、深度學習於地理空間數據判釋技術
+3. 研究遙測數據管理架構，整合強化資料分析與應用
+4. 建立基於GPU計算之遙測推論與分析研究
+5. 其他主管交辦</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8bqzx?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/86mtc?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -5535,22 +5525,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>數據分析工程師</t>
+          <t>氣候變遷永續農業水資源利用-研究專員</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>錼創顯示科技股份有限公司</t>
+          <t>財團法人台灣水資源與農業研究院</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>半導體製造業</t>
+          <t>其他教育服務業</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>苗栗縣竹南鎮</t>
+          <t>新北市淡水區</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5570,43 +5560,40 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>一、對數據分析及程式撰寫有強烈熱誠，能將資料轉化為資訊。
-二、具資料結構，資料探勘，資料分析實務經驗，具基礎程式能⼒。
-三、能善⽤⾃動化的⽅法處理資料，並熟悉⼤量資料處理與分析，使數據分析與應⽤產品化。
-四、提供站內需求對應座標及良率分割。
-五、</t>
+          <t>1.從事水資源精進灌溉計畫執行。
+2.專案相關研究數據分析、報告撰寫及簡報製作。</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8a6xh?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/897d8?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7/02</t>
+          <t>7/05</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>個金_量化策略分析師</t>
+          <t>資深數據分析師 【ETL數據分析師 】</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>中國信託商業銀行股份有限公司</t>
+          <t>邁達特數位股份有限公司</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>台北市南港區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5621,47 +5608,48 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.總體經濟市場量化研究與分析
-2.研究開發資產配置模型與研究量化交易策略
-3.使用特徵工程或數據科學方式建立統計模型與完善數據指標。
+          <t xml:space="preserve">1.數據收集、盤點與管理。
+2.數據ETL開發、測試與維護。
+3.利用ETL工具或T-SQL或Stored Procedure開發。
+4.因應客戶需求進行資料倉儲/資料超市設計與規劃。
 </t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7bhq0?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7oyn3?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>7/07</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>測試自動化研發工程師(新竹)</t>
+          <t>生物資訊工程師</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>鴻海精密工業股份有限公司</t>
+          <t>大安聯合醫事檢驗所</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>消費性電子產品製造業</t>
+          <t>其他醫療保健服務業</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>新竹市</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5671,7 +5659,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5681,19 +5669,24 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1) 架設CI flow(使用Jenkins, Git, pytest框架)，以python作為自動化腳本語言，藉由jenkins 驅動python的自動化腳本，執行 c/c++ compile run/design compiler/</t>
+          <t>1. NGS資料處理、分析與統計
+2. 生物資訊大數據分析
+3. 協助開發與維護分析pipeline
+4. 具備獨立資料蒐集與整理，並將分析結果彙總為重點報告
+5. 依據ACMG及AMP規範進行變異點位判讀
+6. 協助維持ISO15189與CAP</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8djim?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8adl3?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7/02</t>
+          <t>7/04</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5703,27 +5696,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>鈊象電子股份有限公司</t>
+          <t>暘昇資訊有限公司</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>新北市五股區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>月薪30,000~60,000元</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5733,98 +5726,104 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.精通統計理論相關知識，並有數據分析實際經驗
-2.能運用R或Python進行數據分析或具備相關分析經驗者
-3.熟悉操作資料庫工具</t>
+          <t>1. 資料倉儲管理與數據中心建置。
+2. 根據市場與客戶所需, 提供數據分析結果。
+3. 針對需求可提出解決方案與技術可行性評估 。
+4. 營運上相關數據分析, 如會員行為模式分析，提出分群描述及預測模型。
+5. 撰寫機率模組演算程式。
+6. 熟</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/6hv7d?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/81zzq?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6/06</t>
+          <t>6/26</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>自動化設備研發工程師</t>
+          <t>風控實習生</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>天荷生化科技有限公司</t>
+          <t>薇客有限公司</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>生化科技研發業</t>
+          <t>工商顧問服務業</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>新北市汐止區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>月薪40,000~50,000元</t>
+          <t>部分工時(月薪)15,000~25,000元</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>自動控制工程師
-1.用C#開發控制、監控、互動的智慧機械軟體 
-2.用PYTHON開發控制、監控、互動的智慧機械軟體
-3.用深度學習建立「影像識別模型」，辨識目標物
-4.建立MS SQL，能接收、儲存、處理數據
-5.有樹莓派、ARDUINO卡控</t>
+          <t xml:space="preserve">
+崗位職責：
+1. 按SOP整理、覈算業務數據
+2. 發現數據之間的異常，找到異常原因
+3. 按時彙報數據
+任職要求：
+1. 能熟練使用Excel公式，能使用SQL進行數據查詢
+2. 會使用Python優先，對期貨交易瞭解優先，
+</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7gx10?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/86o0y?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7/02</t>
+          <t>7/03</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>人工智慧客服訓練專員</t>
+          <t>〔個金〕客群-模型分析師 (台北)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>愛盛娛樂科技有限公司</t>
+          <t>台新金控_台新國際商業銀行股份有限公司</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>銀行業</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>台中市北區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5839,47 +5838,46 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>此職位的主要職責是將目前的客服對話記錄輸入進人工智慧系統（如ChatGPT或Gemini），並使用ChatGPT的API和Telegram回覆客人的問題。
-該職位需要有較強的數據處理能力和技術背景。
-【工作內容】
-1.收集並整理目前的客服對話記</t>
+          <t>1. 負責客戶行為數據處理，提供數據價值及模型開發建置。
+2. 依照業務經營目標及策略，建構分析需求、創造業務效益。
+3. 協助事業群各類專案分析及行銷成效追蹤，產製相關分析報告。</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8dgvk?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/65vjt?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7/01</t>
+          <t>7/09</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>資料工程師/後端工程師_13309</t>
+          <t>資料分析師(FAT)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>和碩集團_和碩聯合科技股份有限公司</t>
+          <t>德義資訊股份有限公司</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>電腦及其週邊設備製造業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>台北市北投區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5889,60 +5887,63 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>本團隊主要的工作是將海量數據進行收集與前置處理，來提供後續LLM、機器學習、深度學習及統計分析等技術應用在AI產品、智能製造領域以及利用data-driven方式輔助企業決策。
-在AI產品部分，運用收集到到的多樣化數據，提供RAG產品來解決客戶的</t>
+          <t>一、職務內容：
+1、要資料收集與整理：負責資料的收集與整理，確保數據的準確性和完整性。
+2、資料分析：對收集的資料進行深入分析，提供有價值的洞見和建議。
+3、ETL統整：統整ETL（擷取、轉換、載入）流程，確保數據處理流程的順暢運作。
+二、必備</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8dnj3?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8cwg4?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5/16</t>
+          <t>7/05</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>數據科學家 (Data Scientist)</t>
+          <t>【數位轉型處】數據分析師</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>日崚有限公司</t>
+          <t>錠嵂保險經紀人股份有限公司</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>廣告行銷公關業</t>
+          <t>人身保險業</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>新北市新店區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪40,000元以上</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5952,95 +5953,93 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>年以上數據分析/模型開發經驗，並具備機器學習相關模型開發專案經驗
-2. 程式語言和工具：熟悉Python和SQL等程式語言，並在機器學習、大數據架構和資料探勘方面具有實務操作經驗
-3. 溝通和協調能力：能夠預估專案需求難易程度和時程規劃，並以易於理</t>
+          <t xml:space="preserve">1. 依據業務領域，使用分析工具(如:Tableau)，將資料視覺化及建立模型。
+2. 因應組織策略，洞察數據價值，提供產品趨勢或解決方案，作為營運決策參考。
+3. 了解內部整體所有資訊流，資料探勘及分析，挖掘對內對外應用發展價值。
+</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/873xu?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7xk0f?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6/27</t>
+          <t>7/04</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>數據分析師 - Google Analytics</t>
+          <t>【工業4.0】智慧系統程式開發工程師 (S1)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>英屬開曼群島商雲數位智能行銷有限公司台灣分公司</t>
+          <t>欣興電子股份有限公司</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>廣告行銷公關業</t>
+          <t>印刷電路板製造業(PCB)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>桃園市龜山區</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>月薪38,000~48,000元</t>
+          <t>月薪32,000~70,000元</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve">有數位行銷、流量分析、數據洞察應用等經驗 
-6.良好專案管理、時程控管與溝通表達能力
-7.細心負責的工作態度
-【加分條件】 
-熟悉JavaScript
-熟悉python
-擁有Google Ads 實務操作經驗
-</t>
+          <t>承接集團各項資訊專案，範圍含蓋自動控制、資料庫運用、大數據分析，
+可依照專長及適性分配專案，我們有良好的學習環境及工作氣氛，
+針對個人特質部門也有完善的培育計畫，適合有管理企圖心或想要精進資訊專業的人才求職。
+【工作技能】
+■ 程式語言： C或</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/6q2u8?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/6zvwr?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7/01</t>
+          <t>7/05</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>資料工程師 - B216</t>
+          <t>數據工程師 【資料分析應用處】</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>精誠資訊股份有限公司</t>
+          <t>邁達特數位股份有限公司</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>電腦系統整合服務業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6055,26 +6054,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.資料清理與梳理 
-2.設計與開發ETL處理流程與資料表/集 (資料倉儲/資料湖) 
-3.數據分析之資料串接邏輯分析與開發 
-4.主要數據分析平台: 地端 SQL Server, 雲端 Azure 
-5.熟悉資料分析與清洗SQL Query尤佳</t>
+          <t xml:space="preserve">1.	因應客戶需求進行資料倉儲/資料超市設計與規劃。
+2.	數據收集、盤點與管理。
+3.	資料庫效能調教。
+4.	數據ETL開發、測試與維護。
+5.	利用ETL工具或T-SQL或Stored Procedure開發。
+</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7rn8t?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/82jky?jobsource=index_s</t>
         </is>
       </c>
     </row>

--- a/RequestData/jobsearch_data104.xlsx
+++ b/RequestData/jobsearch_data104.xlsx
@@ -1603,190 +1603,188 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>8/09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>營運功能 TO-數據科學家</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光寶科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>消費性電子產品製造業</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>6年以上</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1.參與公司數位轉型專案、訂定年度策略計劃、管理分析工具和數據產品，與公司其他部門合作共贏，達成年度計畫目標；
+2.利用機器學習算法和數據科學技術，提供公司內外部的大數據競爭分析、行業分析、市場調查等應用。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/87len?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>8/12</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>數據分析師</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>鈊象電子股份有限公司</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>網際網路相關業</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>新北市五股區</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>月薪30,000~60,000元</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>1.精通統計理論相關知識，並有數據分析實際經驗
 2.能運用R或Python進行數據分析或具備相關分析經驗者
 3.熟悉操作資料庫工具</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/6hv7d?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>【派駐聯發科/內湖】 系統維護工程師</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>就業情報資訊股份有限公司</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>人力仲介代徵</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>台北市內湖區</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>月薪45,000~65,000元</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>電腦端點系統管理與維護: DLP系統, 資料庫,前端使用者電腦除錯…等等
-安裝與維護資訊安全系統、架構優化與設計
-協調外部廠商或IT進行錯誤處理,維持系統穩定運行.
-系統自動化工具/腳本開發與維護</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8fu73?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8/13</t>
+          <t>8/02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>行政類--商業數據管理師(竹北)</t>
+          <t>資料庫工程師</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>華邦電子股份有限公司</t>
+          <t>小村日和有限公司</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IC設計相關業</t>
+          <t>婚紗服務業</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>新竹縣竹北市</t>
+          <t>新北市永和區</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪50,000~58,000元</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>售數據指標，將結果給予最佳視覺化呈現，並提供有效的決策支援與建議
-3. 建置市場及營銷相關預測模型，並定期執行數據分析以提供報表或簡報
-4. 協助公司數位轉型所需要之專案開發及維護，並推動資料庫整理整合其他分析軟體(如: R, Python,</t>
+          <t>【公司簡介】
+我們是一家領先的親子攝影公司，致力於捕捉和保存每一個珍貴的家庭時刻。隨著業務的擴展，我們正在尋找一位專精於Python的資料庫工程師，來協助我們架構並維護公司的資料庫系統，確保數據的安全性和高效性，也帶給客戶更多的便利性。
+【職位</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8dt9c?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8db6v?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8/12</t>
+          <t>8/06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>交易員(計量交易)</t>
+          <t>AOI/AI影像深度學習工程師</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>台新綜合證券股份有限公司</t>
+          <t>悟智股份有限公司</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>證券及期貨業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台中市西屯區</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1796,7 +1794,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1805,716 +1803,60 @@
         </is>
       </c>
       <c r="I25" t="inlineStr">
-        <is>
-          <t>1.負責開發策略、數據分析、市場觀察
-2.執行投資交易、損益分析</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/89w40?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>8/09</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>〔金控〕氣候風險管理人員 (台北)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>台新金控_台新國際商業銀行股份有限公司</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>銀行業</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>台北市大安區</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1.	建置及執行氣候風險管理機制，包含整體架構，實務運作執行等等。如氣候風險胃納設計、整理分析跨組織氣候風險相關數據 (高碳排產業、壓測財務衝擊等)、設計氣候風險管理對接既有風險(信用/市場/作業)之風險管理。
-2.	跨組織溝通及資料蒐集彙整，執</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7ub48?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>8/08</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>資料科學家 Data Scientist(大數據發展事業處)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>55688集團_台灣智慧生活網股份有限公司</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>網際網路相關業</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>新北市三重區</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1. 設計、開發、部署及優化機器學習模型，解決實際業務問題。
-2. 使用Python、SQL或其他相關數據科學語言，撰寫高效的程式碼以處理大規模數據集並實現複雜的數據分析任務。(負責數據清洗、特徵工程以及模型評估和選擇)
-3. 運用AI、機器學習</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/88nmv?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>8/13</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>JC2002-軟體開發工程師(資料庫)-新竹區</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>頎邦科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>半導體製造業</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>新竹市</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1.資料庫架構設計：設計並實施高效、可擴展的資料庫架構。
-2.數據平台建置：搭建、配置和維護數據平台。
-3.數據整合與處理：整合多來源數據，進行ETL工作。
-4.數據分析：進行數據分析和報告。
-5.系統優化：持續優化數據平台和資料庫性能。
-【</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8fce9?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7/10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ETF儲備基金經理人</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>永豐證券投資信託股份有限公司</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>證券及期貨業</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>台北市中正區</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- 新產品研究與回測
-- 指數策略、產業、總經分析
-- ETF市場研究
-- 專案執行
-</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/89wti?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>8/09</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>資訊系統工程師</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>台灣保來得股份有限公司</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>金屬鍛造及粉末冶金業</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>苗栗縣竹南鎮</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1.SAP系統運作維護：主數據資料維護、模組功能維護、BI資料報表開發、使用者問題排除。
-2.資訊系統規劃維護：EIP/電子簽核/文管、使系統開發維護作業符合資訊安全管理規範。</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7v2jc?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>【確信諮詢服務】碳平台軟體工程師</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>勤業眾信聯合會計師事務所</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>會計服務業</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>台北市信義區</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1.設計、開發和維護碳管理的網頁平台的前端界面，確保良好的用戶體驗。
-2.與後端服務進行接口對接，確保數據的準確傳輸和顯示。
-3.利用Python和Flask框架開發和維護後端服務。
-4.實施基本的SQL操作以處理和分析數據。
-5.與團隊合作，進</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8dfw9?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>富邦證券-ETF及計量交易員</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>富邦綜合證券股份有限公司</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>證券及期貨業</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>台北市大安區</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>碩士</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1.ETF造市及避險。
-2.量化交易模型研究開發與交易執行。</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7y0qm?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>地圖資訊系統專員 Transport GIS Specialist</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>美商愛思捷科技有限公司台灣分公司</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>工商顧問服務業</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>台北市中山區</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>月薪40,000元以上</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1. 空間數據分析：收集、管理和分析與交通網路、交通模式和城市基礎設施相關的空間數據。
-2. GIS製圖：創建和維護詳細的地圖和空間數據庫，以支持交通規劃和決策過程。
-3. 交通建模：開發和實施交通模型，以模擬和預測交通流量並識別潛在的改進措施。</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8ckd8?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>資料分析師(FAM)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>德義資訊股份有限公司</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>電腦軟體服務業</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>台北市內湖區</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>工作內容：
-．使用 Python 或相關程式撰寫並維護各類報表。
-．進行資料驗證，確保數據的準確性和一致性。
-．設計並執行 Tableau 報表展示，提供直觀且易於理解的數據可視化分析。
-．完成主管交辦的其他事項，協助團隊達成目標。
-必要條件：</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8ftd9?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>8/13</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>數位轉型專案高級工程師/技術主任_汐止_00000</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>緯創資通股份有限公司</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>電腦及其週邊設備製造業</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>新北市汐止區</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>3年以上</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>碩士</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>同業務性質與廠區專有特性，做人力相關問題蒐集與分析。
-5.整合公司數據，建立查詢報表，就各單位主管問題與需求提供完整且清晰易懂的自動化數據分析。
-6.數據分析發現潛在問題,提出分析結果發展可控管機制
-7.協助執行其他人力資源數位轉型相關專案</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/88fpr?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>7/30</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PD0710 WEB開發工程師(C#、Python)(內湖)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>仁寶電腦工業股份有限公司</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>電腦及其週邊設備製造業</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>台北市內湖區</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>月薪33,000~60,000元</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1.參與ESG解決方案的開發與實施，包括前端設計與開發，以及資料庫工作。
-2.使用C#、Python語言進行網頁開發，負責專案軟體之測試、修改與維護 。
-3.協助自動化任務中的應用，實施和維護MVC網頁應用程式，確保整體的使用者體驗。
-4.使用資</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/3qvt6?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>8/06</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AOI/AI影像深度學習工程師</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>悟智股份有限公司</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>電腦軟體服務業</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>台中市西屯區</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
         <is>
           <t xml:space="preserve">AOI/AI自動光學檢測設備光機系統之設計及整合應用
 AOI/AI自動光學檢測設備控制、資料處理、影像處理及演算法相關軟體之開發經驗
 </t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/6kutq?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>8/13</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>數位轉型專案經理(總公司)</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>中華工程股份有限公司</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>建築工程業</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>台北市松山區</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>待遇面議</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>5年以上</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>程： 
   探索和實施先進的技術解決方案，將ERP與其他關鍵業務系統（如財務管理、項目管理和供應鏈管理系統）進行整合，建構數據中台和流程的無縫連接。同時，運用自動化工具簡化和最優化營運流程。
@@ -2522,446 +1864,54 @@
   利用ERP系統收集的數據進行</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8alde?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>8/13</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>公西靶場計畫運動力學人員</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>國家運動訓練中心</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>運動服務業</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>桃園市龜山區</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>月薪42,340~51,260元</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5/15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>【凱基證券/衍生性商品部】量化分析交易人員</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>凱基證券股份有限公司</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>證券及期貨業</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>碩士</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1.配合培訓隊執行相關競技運動科學支援事項。
-2.辦理運動力學儀器採購、操作與分析等相關運動科學業務。
-3.申請、執行與彙報各項運動科學研究計畫。
-4.記錄、整理及統計各項業務資料。
-5.其他交辦事項。
-*甄選簡章公告(下載)網址：
-https://www.nstc.org.tw/News?ModuleID=N1&amp;CateID=7f777b08-2f93-416f-87e7-ada09198dbca</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8e5pb?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>【會計處】管理會計部-高級/管理師</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>輝能科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>消費性電子產品製造業</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>桃園市龜山區</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1年以上</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1. 接收部門的預算調整請求，並確保以及時和準確的方式處理。
-2. 與各部門溝通解決預算相關問題。
-3. 整理維護預算數據。
-4. 分析財務與預算比較數據以識別趨勢和改進領域。
-5. 編製財務預測報表，協助公司規劃長期營運方針。
-6. 編製維護管</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/833mz?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>8/13</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>行銷與數據分析專員(總公司)</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>新光三越百貨股份有限公司</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>百貨相關業</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>台北市信義區</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>月薪38,000~45,000元</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>3年以上</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>為落實數據與數位工具應用，協助會員經營，本職位負責使用與推廣MA(AIQUA)，以marketing和MA know-how，教育與協助總公司與分店從設計行銷活動、運用MA，到產出行銷報告與找出insight。透過行銷活動的規劃、執行、檢討、再行</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7xik2?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>7/16</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>數據資料分析及Power Platform開發工程師（台中）</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>香港商滙智環球顧問有限公司台灣分公司</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>工商顧問服務業</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>台中市南屯區</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>與應用。
-5. 其他主管交辦事項作業。
-【條件特質】
-1. 具兩年以上數據/資料分析實務經驗。
-2. 良好邏輯分析與程式開發能力。
-3. 熟悉VBA或Python自動化程式佳。
-4. 具同產業/金融業開發經驗 或 微軟Microsoft 365</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/787uq?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>8/08</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>【台北總公司】寶雅生活用品_商品處_專案幕僚</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>寶雅國際股份有限公司</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>百貨相關業</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>台北市中山區</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1. Power BI視覺化報表開發、設計與維護
-2. 資料庫資料查詢
-3. 使用者需求訪談與處理
-4. 協助組織專案需求，以數據驅動商業成長
-5. 主管交辦
-※熟悉Python、對零售業熟悉者尤佳</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8chh0?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>8/13</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>氣候變遷永續農業水資源領域大數據分析-研究專員</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>財團法人台灣水資源與農業研究院</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>其他教育服務業</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>新北市淡水區</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>碩士</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1.從事水資源管理、風險評估、水文水理分析。
-2.專案計畫研究數據分析與報告撰寫。</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/897dv?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>8/09</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>【品牌行銷部】網路行銷AI大數據分析師</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>拉菲爾股份有限公司</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>其他醫療保健服務業</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>台北市中正區</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>年薪800,000~1,000,000元</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>5年以上</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>方案。
-2. 透過GA4、廣告後台數據、系統後台等數據，製作數據分析報告。
-3. 與其他部門密切合作，共同討論並制定營運策略，以推動業務增長和效率提升。
-4. 配合部門及主管要求事項。
-擅長工具：
-1. 熟悉數據分析工具（如R、Python、</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8fpnv?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>5/15</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>【凱基證券/衍生性商品部】量化分析交易人員</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>凱基證券股份有限公司</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>證券及期貨業</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>台北市中山區</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>碩士</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>1. 衍生性商品造市與避險之交易執行
 2. 現股及衍生性商品之數據分析
@@ -2969,54 +1919,54 @@
 4. 建置相關資料庫以協助交易策略開發</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/7zth9?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>8/13</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>【數位行銷】數據分析師</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>國峯租賃股份有限公司</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>其他金融及輔助業</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>台北市中正區</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>月薪40,000~60,000元</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>1.進行資料收集、標籤定義與數據清理。
 2.進行調查數據的彙整，分析調查數據與繪製統計圖表，並撰寫分析建議報告。
@@ -3026,112 +1976,109 @@
 6.有效利用分析</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8ekcn?jobsource=index_s</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>7/29</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>(GS)商業分析實習生/ AI腳本企劃實習生</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>宥豪數位股份有限公司</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>廣告行銷公關業</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>8/12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>【派駐聯發科/內湖】 系統維護工程師</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>就業情報資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>人力仲介代徵</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>月薪45,000~65,000元</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>電腦端點系統管理與維護: DLP系統, 資料庫,前端使用者電腦除錯…等等
+安裝與維護資訊安全系統、架構優化與設計
+協調外部廠商或IT進行錯誤處理,維持系統穩定運行.
+系統自動化工具/腳本開發與維護</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8fu73?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>8/13</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>資料分析師 Data Analyst-助理</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>華聚會計師事務所</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>會計服務業</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>台北市中山區</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>時薪183元</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>月薪30,000~40,000元</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>經歷不拘</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-   。產業顧客定向
-   。績效優化策略
-   。數位工具整合
-   。網路聲量培育
-   。品牌價值推廣
-以為企業導入「數據化營運策略｣做到營收最大量質為目標，我司利用數據脈絡為基底，輔以廣告、KOL等行銷手法，協助企業將一次性的投資耗損轉換成「高</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8d2v0?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>8/13</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>資料分析師 Data Analyst-助理</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>華聚會計師事務所</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>會計服務業</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>台北市中山區</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>月薪30,000~40,000元</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t xml:space="preserve">
 必備條件： 
@@ -3144,6 +2091,1063 @@
 4. 自動化程式推行/</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/80g1d?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4/03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>【凱基證券/衍生性商品部】量化分析交易人員</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中華開發金融控股股份有限公司|凱基證券|凱基銀行|中華開發資本|凱基投信</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>金融控股業</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1. 衍生性商品造市與避險之交易執行
+2. 現股及衍生性商品之數據分析
+3. 避險及相關交易策略之研發
+4. 建置相關資料庫以協助交易策略開發</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7ztgm?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>8/08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>資料科學家 Data Scientist(大數據發展事業處)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>55688集團_台灣智慧生活網股份有限公司</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>新北市三重區</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1. 設計、開發、部署及優化機器學習模型，解決實際業務問題。
+2. 使用Python、SQL或其他相關數據科學語言，撰寫高效的程式碼以處理大規模數據集並實現複雜的數據分析任務。(負責數據清洗、特徵工程以及模型評估和選擇)
+3. 運用AI、機器學習</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/88nmv?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>8/12</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>交易員(計量交易)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>台新綜合證券股份有限公司</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>證券及期貨業</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1.負責開發策略、數據分析、市場觀察
+2.執行投資交易、損益分析</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/89w40?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>8/09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>〔金控〕氣候風險管理人員 (台北)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>台新金控_台新國際商業銀行股份有限公司</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>銀行業</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>台北市大安區</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1.	建置及執行氣候風險管理機制，包含整體架構，實務運作執行等等。如氣候風險胃納設計、整理分析跨組織氣候風險相關數據 (高碳排產業、壓測財務衝擊等)、設計氣候風險管理對接既有風險(信用/市場/作業)之風險管理。
+2.	跨組織溝通及資料蒐集彙整，執</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7ub48?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>8/13</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Python後端主任工程師 Python Backend Engineer_24233</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>遊戲橘子數位科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>其它軟體及網路相關業</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>4年以上</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1. 使用 Python 設計、開發和維護高效、可擴展的後端服務。
+2. 與前端開發人員合作，定義 API 和數據結構，實現前後端無縫對接。
+3. 優化現有系統，提高性能和穩定性。
+4. 實施和維護安全措施，保護數據和系統安全。
+5. 撰寫和維護</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8eirr?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>8/14</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>投資數據 工讀生(每週最少到職2~3天)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大拇哥證券投資顧問股份有限公司</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>證券及期貨業</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>台北市大安區</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>時薪183元</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>~非暑期實習，能配合至少一季以上佳~
+- 協助優化/維護數據處理流程 (SQL / use python / vba)
+- 定期更新特定資料
+- 協助製作金融報表
+- 主管交辦事項</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/6z1pf?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>8/09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>後端工程師 (Web-based Application)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ASUSTOR_華芸科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>消費性電子產品製造業</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>台北市北投區</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>後端軟體研發
+1. Design and implement scalable backend web applications.
+2. Design RESTful Web Services
+3. Server maintenance (AWS)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/440va?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ETF儲備基金經理人</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>永豐證券投資信託股份有限公司</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>證券及期貨業</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>台北市中正區</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- 新產品研究與回測
+- 指數策略、產業、總經分析
+- ETF市場研究
+- 專案執行
+</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/89wti?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>8/09</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>資訊系統工程師</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>台灣保來得股份有限公司</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>金屬鍛造及粉末冶金業</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>苗栗縣竹南鎮</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1.SAP系統運作維護：主數據資料維護、模組功能維護、BI資料報表開發、使用者問題排除。
+2.資訊系統規劃維護：EIP/電子簽核/文管、使系統開發維護作業符合資訊安全管理規範。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7v2jc?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>8/09</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>數據分析工程師</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>馗鼎奈米科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>光電產業</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>台南市永康區</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>月薪40,000~65,000元</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1. 協助單位分析數據、建立模型、數據視覺化，並協同轉化成可執行方案，並追蹤方案成效(時序數據分析、設備預警-設備異常識別-預測異常)
+2. 專案管理：協助平行展開設備智慧化專案開發
+3. 具Python程式撰寫能力，熟悉資料分析技術(統計學、機</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8d2ra?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>8/13</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>商業分析師 Business intelligence Analyst</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>藍智天際顧問有限公司</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>解決數據問題，提出改善業務運營的解決方案
+充分了解產品，提取並提供有見地的數據驅動建議
+要求：
+至少3年BI/數據分析和市場情報的經驗，有科技或新創環境的工作經驗者優先
+精通SQL，具有Python工作經驗者優先
+自律的團隊合作者，能夠快速學習和</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8fe45?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7/16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>數據資料分析及Power Platform開發工程師（台中）</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>香港商滙智環球顧問有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>工商顧問服務業</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>台中市南屯區</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>與應用。
+5. 其他主管交辦事項作業。
+【條件特質】
+1. 具兩年以上數據/資料分析實務經驗。
+2. 良好邏輯分析與程式開發能力。
+3. 熟悉VBA或Python自動化程式佳。
+4. 具同產業/金融業開發經驗 或 微軟Microsoft 365</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/787uq?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>8/13</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>氣候變遷永續農業水資源領域大數據分析-研究專員</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>財團法人台灣水資源與農業研究院</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>其他教育服務業</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>新北市淡水區</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1.從事水資源管理、風險評估、水文水理分析。
+2.專案計畫研究數據分析與報告撰寫。</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/897dv?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>8/08</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>【台北總公司】寶雅生活用品_商品處_專案幕僚</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>寶雅國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>百貨相關業</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1. Power BI視覺化報表開發、設計與維護
+2. 資料庫資料查詢
+3. 使用者需求訪談與處理
+4. 協助組織專案需求，以數據驅動商業成長
+5. 主管交辦
+※熟悉Python、對零售業熟悉者尤佳</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8chh0?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>8/09</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>【品牌行銷部】網路行銷AI大數據分析師</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>拉菲爾股份有限公司</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>其他醫療保健服務業</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>台北市中正區</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>年薪800,000~1,000,000元</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>方案。
+2. 透過GA4、廣告後台數據、系統後台等數據，製作數據分析報告。
+3. 與其他部門密切合作，共同討論並制定營運策略，以推動業務增長和效率提升。
+4. 配合部門及主管要求事項。
+擅長工具：
+1. 熟悉數據分析工具（如R、Python、</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8fpnv?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5/15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>【凱基證券/衍生性商品部】量化分析交易人員</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>凱基證券股份有限公司</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>證券及期貨業</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1. 衍生性商品造市與避險之交易執行
+2. 現股及衍生性商品之數據分析
+3. 避險及相關交易策略之研發
+4. 建置相關資料庫以協助交易策略開發</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/7zth9?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>8/13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>【數位行銷】數據分析師</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>國峯租賃股份有限公司</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>其他金融及輔助業</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>台北市中正區</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>月薪40,000~60,000元</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1.進行資料收集、標籤定義與數據清理。
+2.進行調查數據的彙整，分析調查數據與繪製統計圖表，並撰寫分析建議報告。
+3.依據分析需求，進行資料數據分析與邏輯運算作業。
+4.分析企業統計數據。
+5.數據視覺化報表產出，製作相關簡報。
+6.有效利用分析</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8ekcn?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7/29</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(GS)商業分析實習生/ AI腳本企劃實習生</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宥豪數位股份有限公司</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>廣告行銷公關業</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>時薪183元</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+   。產業顧客定向
+   。績效優化策略
+   。數位工具整合
+   。網路聲量培育
+   。品牌價值推廣
+以為企業導入「數據化營運策略｣做到營收最大量質為目標，我司利用數據脈絡為基底，輔以廣告、KOL等行銷手法，協助企業將一次性的投資耗損轉換成「高</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8d2v0?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8/13</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>資料分析師 Data Analyst-助理</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>華聚會計師事務所</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>會計服務業</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>月薪30,000~40,000元</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+必備條件： 
+- 3年以上經驗。
+- 熟悉資料庫及Tableau工具。
+- 略知SQL語法。
+1. 將資料視覺化及建立模型
+2. 數據價值和建立模板，提供解決方案，作為決策參考
+3. 透過資料庫，挖掘對內對外應用發展價值
+4. 自動化程式推行/</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/80g1d?jobsource=index_s</t>
@@ -3376,100 +3380,45 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8/02</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>數金部數據分析人員</t>
+          <t>Survey Programmer（約聘/ PT）</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>臺灣中小企業銀行股份有限公司</t>
+          <t>台灣尼爾森愛科股份有限公司</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>工商顧問服務業</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>台北市大同區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>月薪37,000~50,000元</t>
+          <t>遠端工作</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
-        <is>
-          <t>1.整合跨單位數據分析之需求專案與梳理。
-2.透過應用SAS、R、Python等軟體洞察客戶行為找出特徵值或關鍵性因素，執行數據行
-   為預測並建置模型，以應用於數位通路服務或行銷推展，創造營運績效。
-3.進行大數據蒐集、定義、分析及應用，執行</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7fv2v?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>8/09</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Survey Programmer（約聘/ PT）</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>台灣尼爾森愛科股份有限公司</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>工商顧問服務業</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>台北市松山區</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>遠端工作</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
         <is>
           <t xml:space="preserve">邀請您加入尼爾森愛科，我們尋找對於市場資料分析抱持熱情的你／妳：
 工作內容：
@@ -3483,9 +3432,64 @@
 </t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/5g21f?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8/02</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>數金部數據分析人員</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>臺灣中小企業銀行股份有限公司</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>銀行業</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>台北市大同區</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>月薪37,000~50,000元</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1.整合跨單位數據分析之需求專案與梳理。
+2.透過應用SAS、R、Python等軟體洞察客戶行為找出特徵值或關鍵性因素，執行數據行
+   為預測並建置模型，以應用於數位通路服務或行銷推展，創造營運績效。
+3.進行大數據蒐集、定義、分析及應用，執行</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/5g21f?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7fv2v?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -4512,40 +4516,94 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>資深數據分析師</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>三井住友海上集團_明台產物保險股份有限公司_數位科技處</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>產物保險業</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>台北市松山區</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>8年以上</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>用能力,具有撰寫良好的分析報告能力。
+6.熟悉數據分析程式或工具(Python、R等)，熟Python尤佳。
+7.其他主管交辦事項。</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8b4mu?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>8/09</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>[SEC] Golang後端工程師</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>動力安全資訊股份有限公司</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>電腦系統整合服務業</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>台北市內湖區</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>待遇面議</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>3年以上</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>專科</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t xml:space="preserve">1. 後端系統與架構設計，熟悉Golang尤佳
 2. API 設計及開發，熟悉gin尤佳
@@ -4556,63 +4614,9 @@
 </t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8a3kc?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>8/09</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>資深數據分析師</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>三井住友海上集團_明台產物保險股份有限公司_數位科技處</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>產物保險業</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>台北市松山區</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>8年以上</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>用能力,具有撰寫良好的分析報告能力。
-6.熟悉數據分析程式或工具(Python、R等)，熟Python尤佳。
-7.其他主管交辦事項。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8b4mu?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -4953,58 +4957,55 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7/12</t>
+          <t>8/14</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JIR020 全棧軟體工程師</t>
+          <t>交易員(計量交易部)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>啟碁科技股份有限公司</t>
+          <t>永豐金證券股份有限公司</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>通訊機械器材相關業</t>
+          <t>證券及期貨業</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>新竹市</t>
+          <t>新北市板橋區</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪40,000~80,000元</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1. 設計前後端分離之應用與服務
-2. 設計服務 API 介面與數據模型
-3. Web 應用前端開發實作
-4. 服務後端開發實作
-[必備專長技能]
-1. 熟悉前端程式語言及框架(JavaScript、React)
-2. 熟悉後端程式語言及框架(</t>
+          <t>1.	負責權益證券、期貨等衍生性商品自營交易操作
+2.	交易策略研究與開發
+3.	遵循自營風險控管與相關法令規範
+4.	具SAS、Python等大數據處理使用經驗者尤佳</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7ye2b?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8febr?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -5016,22 +5017,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>【數位驅動】商業數據分析師(數數發中心, DDT)_II00002602</t>
+          <t>通路數據分析師</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
+          <t>中嘉數位股份有限公司</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>網際網路相關業</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5041,46 +5042,50 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1. 規劃「數據驅動」之商業解決方案，並與跨部門業務合作，扮演企業內部顧問角色，推動銀行數據創新轉型。
-2. 識別銀行業務情境及指標，應用結構化與非結構化資料進行探勘與分析，或結合機器學習預測模型等方式，量身規劃數據驅動解決方案。
-3. 以敏捷手</t>
+          <t>使用經驗者優先
+• 熟悉Python程式語言者優先
+• 懂Web架構者優先
+【專業培訓】
+• 提供MS SQL 語法觀念/效能調教等基礎教學，幫助你提升技術能力。
+• 提供ETL工具(Trinity)專業教育訓練，掌握數據處理核心技能。
+• 部門</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/89of7?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7y2kx?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8/12</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>【數位驅動】資料科學工程師_Data (數數發中心，DDT)_I00011494</t>
+          <t>數據工程師 Data Engineer -集團徵才-數據科技(數數發中心, DDT)_I00014628</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
+          <t>國泰金控_國泰金融控股股份有限公司</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>金融控股業</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5095,7 +5100,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5105,112 +5110,106 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Hive資料市集設計、開發、管理維護
-2. ETL 問題追蹤與管理
-3. 資料處理與整合
-4. 用資料導向概念提升各類業務，並導入系統以加強各項資料應用
-5. 協助資料研究及分析過程中需要的資料處理
-6. 導檔排程優化/維運
-7. 協助導檔排程上線
-8. 資料相關資料庫管理/維運(Neo4j、MongoDB、Oracle、Hadoop...等)
-9. 文件撰寫、簡報製作
-</t>
+          <t>[主要任務]
+1. 各項數據資料盤點與蒐集，並進行資料模型設計與管理
+2. 因應業務需求支援各類型來源資料串接、資料處理，完善資料倉儲
+3. 資料 ETL 流程自動化規劃、設計、開發與監控維護
+4. 資料品質之監控與管理，及對應機制的建立
+5.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/87176?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/87w7s?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8/09</t>
+          <t>8/05</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Unity全端工程師</t>
+          <t>資料分析工程師</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>斐亞米有限公司</t>
+          <t>成強科技股份有限公司</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>其它軟體及網路相關業</t>
+          <t>其他電子零組件相關業</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>台中市西屯區</t>
+          <t>新北市林口區</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>月薪40,000~60,000元</t>
+          <t>月薪32,000~40,000元</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>數據庫管理和API設計。
-【基本條件】
-- 具有至少一年以上的Unity 2D遊戲開發經驗。
-- 熟悉C#語言。
-- 對2D遊戲開發有深厚的熱情。
-- 有良好的問題解決能力和自我學習能力。
-- 能夠獨立工作，與團隊合作共同設計策劃遊戲。
-- 熟練</t>
+          <t>公司目前正著手跨領域製作新型遊戲  (運動相關)，
+詳見官網:https://jacfit.com.tw/
+主要工作內容:
+1.對現有資料分析算法進行維護。
+2.與研發團隊針對設備軟體數據資料，進行採集及分析。
+3.根據產品開發要求，與團隊協作</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8colm?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8e1v0?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7/16</t>
+          <t>8/13</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RD21379 雲端大數據工程師</t>
+          <t>國網中心_空間資訊技術研究人員-新竹(編制NCHC_112_03_09)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>華碩電腦股份有限公司</t>
+          <t>財團法人國家實驗研究院</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>電腦及其週邊設備製造業</t>
+          <t>政府／民意機關</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>台北市北投區</t>
+          <t>新竹市</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪38,000~59,000元</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5220,50 +5219,53 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1. 處理和分析雲端平台數據
-2. 維運大數據處理系統</t>
+          <t>1. 航遙測影像數據處理分析
+2. 開發機器學習、深度學習於地理空間數據判釋技術
+3. 研究遙測數據管理架構，整合強化資料分析與應用
+4. 建立基於GPU計算之遙測推論與分析研究
+5. 其他主管交辦</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8658o?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/86mtc?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>8/07</t>
+          <t>8/08</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>【台北總部】eHRD事業群_研發處_後端工程師(JAVA)</t>
+          <t>運動生物力學數據分析師</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>旭聯科技股份有限公司</t>
+          <t>威亘企業有限公司</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>綜合商品批發代理業</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>月薪32,000~42,000元</t>
+          <t>月薪38,000元以上</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5278,17 +5280,19 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RESTful web service
-2、雲端相關技術或大數據分析，AI 等相關能力
-3、DevOps 相關技能 (CI, 容器化)
-4、其他程式語言, 如 C#, python, ruby, Kotlin 等
-5、Design Pattern
-6、企業人資</t>
+          <t xml:space="preserve">1. 受測人員聯絡與安排
+2. 根據團隊目的設計檢測流程
+3. 儀器操作與確保資料擷取品質
+4. 檢測訊號處理與計算
+5. 撰寫結果分析與洞察報告
+6. 檢索國內外相關文獻
+7. 主管交辦其他事項
+</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7le62?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7lqdz?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -5300,17 +5304,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>API工程師(平台發展部)</t>
+          <t>零售債管部-資深零售營運人員</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>永豐金證券股份有限公司</t>
+          <t>永豐商業銀行股份有限公司</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>證券及期貨業</t>
+          <t>銀行業</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5325,7 +5329,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5335,44 +5339,40 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
-- 使用 Rust  / C#編程語言進行後端開發，並遵循最佳實踐和軟件工程原則。 
-- 進行代碼審查，確保代碼質量和安全性。 
-- 與團隊合作設計和實現數據庫結構和模型。 
-- 優化 API 性能，解決相關的可擴展性和效能問題。 
-- 進行單</t>
+          <t>一、系統升級整合規劃及需求測試。
+二、資料庫分析運用及語法驗證。</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/85q8d?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8dk14?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7/12</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JKR100-AI Software Engineer</t>
+          <t>【智慧製造發展中心】數據平台工程師</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>啟碁科技股份有限公司</t>
+          <t>日月光半導體製造股份有限公司中壢分公司</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>通訊機械器材相關業</t>
+          <t>半導體製造業</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>新竹市</t>
+          <t>桃園市中壢區</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5382,54 +5382,53 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1. 工業數據前處理與分析 
-2. 運用機器學習、深度學習等技術開發符合國內製造產業場域之模型或演算法 
-3. 評估模型與演算法效益 
-4. 視覺化數據、分析、評估等結果 
-5. 設計端到端的 AI 解決方案用於國內製造產業場域 
-6. 最佳化模</t>
+          <t>1. 專案需求評估、導入、管理。
+2. 與團隊成員協作，開發數據平台的各項模組。
+3. 各項數據平台模組(後臺管理/戰情儀表板/ Web統計報表 ...等) 功能開發與測試。
+4. 資料庫的數值操作與資料取用。
+5. 工廠各項 KPI、生產流程、</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7xkj5?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8euqb?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>8/09</t>
+          <t>8/05</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>環境工程師</t>
+          <t>C.顧問類-數據分析與流程風險顧問(金融業)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>長榮大學_環境資訊研究中心</t>
+          <t>資誠企業管理顧問股份有限公司</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>大專校院教育事業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>台南市歸仁區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5439,64 +5438,65 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>【工作內容】
-1. 協助專案計畫申請、執行、報告、簡報製作及計畫經費核銷
-2. 空氣模式模擬及數據資料處理分析
-3. 其他配合專案執行之交辦事項
-【條件需求】
-1. 教育部認可之國內外環境工程(科學)、大氣科學或資訊工程等理工相關系所碩士以上學</t>
+          <t>工作內容：
+數據分析與流程風險顧問(金融業)
+1. 因應數位轉型規劃，協助金融業進行數據分析模型建置，如: 客群分析模型／偽冒模型等。
+2. 其它主管交辦事項
+其他條件：
+1. 具備數據分析工具能力，如: Python, SAS等
+2. 具</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/748cv?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7y62e?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8/06</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>數據分析師(台北)</t>
+          <t>行銷數據分析實習生【明基BenQ雲端創新中心】</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>凱發科技股份有限公司</t>
+          <t>明基電通股份有限公司</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>消費性電子產品製造業</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>台北市南港區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>月薪40,000元以上</t>
+          <t>時薪183元</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5506,48 +5506,42 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-工作內容
-1 : 進行數據與資料蒐集、彙整、分析、並產出產品、管理等部門之分析需求。 
-2 :數據報告撰寫。
-3：邏輯分析能力強
-工作技能
-1 : 數學統計方法。
-2 : 精熟excel函式。
-3 : 視覺化軟體工具。
-4 : 資料庫:SQL</t>
+          <t>【職務說明】
+1. 協助全球B2B、B2C等數十個國家之官網數據分析專案。
+2. 協助Windows/Android/Web等產品線App數據分析專案。
+3. 協助資料盤點及數據正確性驗證，提供正確數據給全球各業務單位、行銷部門及各國分公司使用。</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/6sari?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/6o2bd?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8/08</t>
+          <t>7/30</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AI大數據應用工程師</t>
+          <t>Python開發工程師</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>中嘉數位股份有限公司</t>
+          <t>加林軟體科技有限公司</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市中正區</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5557,51 +5551,51 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>發 (運用軟體: Tools：Python &amp; SQL &amp; Trinity ETL  | DB: MS SQL &amp; Greenplum )。
-2.	針對行銷/業務/網路相關主題的AI專案(機器學習為主) 執行。
-3.	網路數據蒐集進行自動化開發 (</t>
+          <t>職位要求：
+1.技能要求：熟悉Python程式語言，具備扎實的程式設計基礎，包含function、Class、Init等基礎架構及物件導向程式設計概念。 
+2.專業知識：對GenAI開源模型有導入和測試的實際操作經驗，瞭解LangChain開發框</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8fkwl?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/87ua3?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8/08</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>資安稽核資深專員_稽核處(台北)</t>
+          <t>電力交易員</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>台達電子工業股份有限公司 _DELTA ELECTRONICS INC.</t>
+          <t>台泥企業團_台泥儲能科技股份有限公司</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>其他電子零組件相關業</t>
+          <t>電力供應業</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5611,7 +5605,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5621,18 +5615,14 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>&lt;職務需求&gt;
-1.了解內部控制、營運風險
-2.熟悉系統安全及資訊安全等控制
-3.能獨立完成營運流程梳理與技術探勘， 
-4. 熟悉企業營運流程及數據架構，對營運數據具敏感度，具獨立分析應用與資料彙整組織能力
-&lt;專業需求&gt;
-1.具Python/</t>
+          <t>1. 電力交易客戶開發與經營，包含客戶提案、場勘、日常運維與突發狀況溝通。
+2. 電力資訊平台開發，提供Domain Know-How協助工程師進行平台功能開發與優化。
+3. 能源政策與相關法規理解及追蹤，包含蒐集市場資訊、參與研討會與分享。</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/883jy?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7w0zy?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -5644,22 +5634,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>資料工程師/後端工程師</t>
+          <t>BMC/BIOS Firmware Test Engineer (具備3~6年工作經驗)(E&amp;I-三重)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>銓鍇國際股份有限公司</t>
+          <t>(捷普集團)綠點高新科技股份有限公司捷普設計服務分公司</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>消費性電子產品製造業</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>新北市中和區</t>
+          <t>新北市三重區</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5669,7 +5659,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5679,43 +5669,53 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.開發數據架構核心模組及數據服務。  
-2.開發資料模型和數據管理等解決方案。  
-3.基於成本有效性持續改善資料流水線、相關流程及架構。
-4.具實踐安全性的實務經驗，如資料保護、資料分級等，以保護公司和客戶的數據。  
-5.理解資料倉儲、資料</t>
+          <t xml:space="preserve">JOB SUMMARY (Main Responsibilities)
+Jabil Server &amp; Embedded product Firmware function validation and test case creation. Test targets include Rack/Tower Server, Storage Server, Networking Server BIOS &amp; BMC FW Platform integration and function test. 
+ESSENTIAL DUTIES AND RESPONSIBILITIES 
+1. Executive the BIOS &amp; BMC FW release test.
+2. New test case creation and maintain. 
+3. Familiar with server architecture, able to setup the server test environment. 
+4. Report defect via Bug tracking systems (Jira or Bugzilla)
+5. Able to create test scripts, optimize the test cases. 
+6. Create SOP or documentation. 
+7. Plan the test execution cycle based on FW release schedule. 
+8. Support Engineering team to narrow down the test failed step, reproduce the issue or create the unit test cases. 
+Management &amp; Supervisory Responsibilities
+• Typically reports to Management. Direct supervisor Engineering Manager or Group Lead 
+• Job is NOT directly responsible for managing other employees 
+</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8e74p?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/804y2?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7/30</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>資料分析人員(資訊部)</t>
+          <t>商業數據分析師</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>國票綜合證券股份有限公司</t>
+          <t>台北富邦商業銀行股份有限公司</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>證券及期貨業</t>
+          <t>銀行業</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5725,120 +5725,116 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.客戶資料分析
-2.客戶行為分析
-3.業務分析
-4.資訊安全分析</t>
+          <t>數據科學部是台北富邦銀行數據服務的核心開發中心，中心的使命是落地科技前沿技術以服務行內業務行銷分析、客戶個人化金融場景，建立以數據驅動的商業模式。
+在這裡我們重視以下文化，也希望來到這的夥伴們重視他們：
+1.開放：自由地分享想法、觀點和經驗。</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/88j02?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7e4ci?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8/13</t>
+          <t>8/07</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>【長期實習】數據分析實習生(實習開始時間-202409開學後)</t>
+          <t>數據分析工程師</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>麗嬰房股份有限公司</t>
+          <t>龍騰文化事業股份有限公司</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>鞋類／布類／服飾品零售業</t>
+          <t>書籍出版業</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>新北市五股區</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>時薪220元</t>
+          <t>月薪50,000~70,000元</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>】 
-1. 專案進行資料清洗、分析、驗證  
-2. 資料分析、SQL/Python code撰寫、洞見儀表板  
-3. 協助各業務單位、行銷部門釐清數據需求並製作數據分析報告。 
-4. 常規報表自動化
-【所需技能】  
-1. 具資料清洗、正規化、</t>
+          <t>1.規劃資料處理分析流程、各項資料分析模型與演算法
+2.與相關單位訪談、蒐集與規劃各項分析需求
+3.分析用戶行爲及業務數據，即時發現數據中潜在問題/商機，並出具數據分析/數據挖掘報告
+4.負責建置data warehouse，開發及設計BI分析報</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/866b6?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7n23z?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8/09</t>
+          <t>8/14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>教育部委辦計畫專任助理(數據分析專員)</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>國立臺灣師範大學_英語學系</t>
+          <t>時刻科技股份有限公司</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>大專校院教育事業</t>
+          <t>電腦軟體服務業</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>台中市西區</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>月薪35,120~40,165元</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5848,52 +5844,52 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Facebook 粉專、Line@官方帳號、YouTube 頻道）
-4. 其他主管及教育部國教署臨時交辦事項
-【應徵條件】
-1.	語言/統計/教育/資訊等相關背景皆歡迎。擅長數據工具使用（R、Python、Google Analytics、Excel等）</t>
+          <t>戰經驗
+- 精通SQL、Python等數據處理語言，熟悉現代數據倉儲技術
+- 對AWS、GCP、Firebase/Google Analysis、等雲平台的數據服務有深入了解
+- 熟悉ETL流程和工具(如 Mage.ai)，有設計複雜數據流的經驗</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8f6al?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8e0ph?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8/14</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>資深Web後端工程師</t>
+          <t>【總公司】數據分析師（媒體數據部）</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>沛然資訊有限公司</t>
+          <t>海悅國際開發股份有限公司</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>不動產經營業</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市松山區</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>年薪1,200,000~2,000,000元</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5903,46 +5899,49 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1. 負責金融投資決策網站的開發與維護，確保系統穩定與安全。
-2. 負責開發金融交易演算法程式。
-3. 使用Python或Node.js語言開發後端RESTful API，確保數據的穩定與高效。</t>
+          <t xml:space="preserve">，可以長時間面對數據者佳。
+➌ 入職後需學習房地產相關知識，對新事物有好奇心與熱誠者尤佳。
+➍ 需部分接觸AWS相關內容，具有相關經驗者加分。
+➎ 需熟悉Python 程式語言。
+➏ 其他主管交辦事項，以及例行性行政事務。
+</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8d7ui?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8d0lt?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8/13</t>
+          <t>8/14</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>資料架構師 Data Architect【聯想感】</t>
+          <t>(顧問事業部)研究員</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>股感資訊股份有限公司</t>
+          <t>永豐期貨股份有限公司</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>金融控股業</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市中正區</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>月薪60,000元以上</t>
+          <t>月薪30,000~40,000元</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5952,57 +5951,59 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1. 設計/評估/建構 Database &amp; warehouse，包括數據測試、數據監控、品質管理等方式。
-2. 設計/評估/建構 Data Pipeline。
-3. 協助/建議 領域專家數據清理，分析手法，結果解讀， 數據視覺化。
-4. 資料倉</t>
+          <t>我們的工作有別於傳統研究員，不會只跟財經資訊與數字相處，還會定期參與錄影直播或行銷企劃等專案，如果你想讓多做、多學成為全方位的斜槓人才，非常歡迎你加入！
+主要的工作內容有：
+1. 國內外研究報告撰寫
+2. 法人客戶拜訪與簡報 
+3. 上鏡頭參與各項專案
+4. 其他主管交辦事項</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8fx8x?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/6vbdw?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8/07</t>
+          <t>8/08</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>【台北總部】eHRD事業群_金融暨服務事業處_後端工程師(JAVA)</t>
+          <t>自動化設備研發工程師</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>旭聯科技股份有限公司</t>
+          <t>天荷生化科技有限公司</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>生化科技研發業</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>新北市汐止區</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>月薪32,000~42,000元</t>
+          <t>月薪40,000~50,000元</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6012,49 +6013,49 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> web service
-2、雲端相關技術或大數據分析，AI 等相關能力
-3、DevOps 相關技能 (CI, 容器化)
-4、其他程式語言, 如 C#, python, ruby, Kotlin 等
-5、Design Pattern
-6、企業人資系</t>
+          <t>自動控制工程師
+1.用C#開發控制、監控、互動的智慧機械軟體 
+2.用PYTHON開發控制、監控、互動的智慧機械軟體
+3.用深度學習建立「影像識別模型」，辨識目標物
+4.建立MS SQL，能接收、儲存、處理數據
+5.有樹莓派、ARDUINO卡控</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/84w5u?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7gx10?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8/12</t>
+          <t>8/13</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>【數位驅動】資料科學工程師_數據應用 (數數發中心, DDT)_I00014665</t>
+          <t>工研院資通所_數據科學/分析暑期實習生(T304)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
+          <t>工研院 _財團法人工業技術研究院</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>其他專業／科學及技術業</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>新竹縣竹東鎮</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>遠端工作</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6064,21 +6065,19 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>【主要職責 Who we are looking for】 
-負責企業資料倉儲及數據應用平台之建置/開發/管理。 
-【主要職責 Who we are looking for】 
-負責企業資料倉儲及數據應用平台之建置/開發/管理。 
-【職務說明</t>
+          <t>量，都是在我們擁抱人工智慧，同時必須先規範的環境。工研院承接衛福部計畫，發展次世代數位醫療平台，我們邀請您投入暑期研究實習計畫，與我們我一起開創更安全、更有效的醫療人工智慧應用，為未來的醫療保健帶來創新與進步。
+工作內容 : 
+1. 支援數據的收</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8a39r?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8bcqo?jobsource=index_s</t>
         </is>
       </c>
     </row>

--- a/RequestData/jobsearch_data104.xlsx
+++ b/RequestData/jobsearch_data104.xlsx
@@ -4947,27 +4947,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8/12</t>
+          <t>8/13</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>通路數據分析師</t>
+          <t>數據工程師</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>中嘉數位股份有限公司</t>
+          <t>AIR SPACE_新地國際股份有限公司</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>鞋類／布類／服飾品批發業</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市士林區</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4982,50 +4982,48 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>使用經驗者優先
-• 熟悉Python程式語言者優先
-• 懂Web架構者優先
-【專業培訓】
-• 提供MS SQL 語法觀念/效能調教等基礎教學，幫助你提升技術能力。
-• 提供ETL工具(Trinity)專業教育訓練，掌握數據處理核心技能。
-• 部門</t>
+          <t>者緊密合作，了解需求並交付數據解決方案。
+7. 故障排除：監控資料基礎設施的性能，並進行必要的調整和優化，並解決數據管道中的問題，以確保運行順利。
+8. 良好的溝通與表達能力
+擅長工具
+Python、R、MS SQL、MySQL、Excel、</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7y2kx?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8fvcr?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8/08</t>
+          <t>8/12</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>運動生物力學數據分析師</t>
+          <t>AI技術支援工程師</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>威亘企業有限公司</t>
+          <t>志合人工智能股份有限公司</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>綜合商品批發代理業</t>
+          <t>其它軟體及網路相關業</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5035,7 +5033,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5045,152 +5043,143 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. 受測人員聯絡與安排
-2. 根據團隊目的設計檢測流程
-3. 儀器操作與確保資料擷取品質
-4. 檢測訊號處理與計算
-5. 撰寫結果分析與洞察報告
-6. 檢索國內外相關文獻
-7. 主管交辦其他事項
-</t>
+          <t>1. 依AIPC產品功能與網站服務內容，撰寫測試用例與測試計畫。
+2. 針對AIPC應用與網站服務進行系統、功能、UI/UX等相容性測試與壓力測試並產出測試報告。
+3. 網站服務後台管理與分析追蹤用戶反饋問題，並提供問題重現流程。
+4. 協助AI模型建模、訓練與評量過程的資料收集、清洗、標記和模型超參數調適。
+5. 協助競品分析，找出AIPC產品和服務與競爭者的功能性及使用體驗上的差異。
+6. 完成主管交辦事項。
+※工作待遇以實際面談後依學經歷、工作年資 核定敘薪。</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7lqdz?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8evh3?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8/09</t>
+          <t>8/12</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Survey Programmer（約聘/ PT）</t>
+          <t>【派駐聯發科/內湖】 系統維護工程師</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>台灣尼爾森愛科股份有限公司</t>
+          <t>就業情報資訊股份有限公司</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>工商顧問服務業</t>
+          <t>人力仲介代徵</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>遠端工作</t>
+          <t>月薪45,000~65,000元</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">邀請您加入尼爾森愛科，我們尋找對於市場資料分析抱持熱情的你／妳：
-工作內容：
-1. 完整參與內部訓練流程，為期約2至3週。
-2. 使用excel設置線上問卷訪問題目
-3. 根據內外部需求，及時修改文檔
-4. 對流程熟悉後，進一步協助題目邏輯的抓錯
-5. 專案相關文檔的建立與彙整
-6. 參與部門內的會議，追蹤與回報狀況。
-7. 熟悉基礎工作後，根據內外部需求，設置線上問卷訪問程式。
-</t>
+          <t>電腦端點系統管理與維護: DLP系統, 資料庫,前端使用者電腦除錯…等等
+安裝與維護資訊安全系統、架構優化與設計
+協調外部廠商或IT進行錯誤處理,維持系統穩定運行.
+系統自動化工具/腳本開發與維護</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/5g21f?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8fu73?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8/07</t>
+          <t>7/16</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>數據分析工程師</t>
+          <t>RD21379 雲端大數據工程師</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>龍騰文化事業股份有限公司</t>
+          <t>華碩電腦股份有限公司</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>書籍出版業</t>
+          <t>電腦及其週邊設備製造業</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>新北市五股區</t>
+          <t>台北市北投區</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>月薪50,000~70,000元</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.規劃資料處理分析流程、各項資料分析模型與演算法
-2.與相關單位訪談、蒐集與規劃各項分析需求
-3.分析用戶行爲及業務數據，即時發現數據中潜在問題/商機，並出具數據分析/數據挖掘報告
-4.負責建置data warehouse，開發及設計BI分析報</t>
+          <t>1. 處理和分析雲端平台數據
+2. 維運大數據處理系統</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7n23z?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8658o?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8/05</t>
+          <t>8/08</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>資料分析工程師</t>
+          <t>資安稽核資深專員_稽核處(台北)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>成強科技股份有限公司</t>
+          <t>台達電子工業股份有限公司 _DELTA ELECTRONICS INC.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5200,17 +5189,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>新北市林口區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>月薪32,000~40,000元</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5220,17 +5209,18 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>公司目前正著手跨領域製作新型遊戲  (運動相關)，
-詳見官網:https://jacfit.com.tw/
-主要工作內容:
-1.對現有資料分析算法進行維護。
-2.與研發團隊針對設備軟體數據資料，進行採集及分析。
-3.根據產品開發要求，與團隊協作</t>
+          <t>&lt;職務需求&gt;
+1.了解內部控制、營運風險
+2.熟悉系統安全及資訊安全等控制
+3.能獨立完成營運流程梳理與技術探勘， 
+4. 熟悉企業營運流程及數據架構，對營運數據具敏感度，具獨立分析應用與資料彙整組織能力
+&lt;專業需求&gt;
+1.具Python/</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8e1v0?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/883jy?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -5242,27 +5232,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>【工業4.0】智慧系統程式開發工程師 (S1)</t>
+          <t>教育部委辦計畫專任助理(數據分析專員)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>欣興電子股份有限公司</t>
+          <t>國立臺灣師範大學_英語學系</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>印刷電路板製造業(PCB)</t>
+          <t>大專校院教育事業</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>桃園市龜山區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>月薪32,000~70,000元</t>
+          <t>月薪35,120~40,165元</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5277,48 +5267,47 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>承接集團各項資訊專案，範圍含蓋自動控制、資料庫運用、大數據分析，
-可依照專長及適性分配專案，我們有良好的學習環境及工作氣氛，
-針對個人特質部門也有完善的培育計畫，適合有管理企圖心或想要精進資訊專業的人才求職。
-【工作技能】
-■ 程式語言： C或</t>
+          <t>Facebook 粉專、Line@官方帳號、YouTube 頻道）
+4. 其他主管及教育部國教署臨時交辦事項
+【應徵條件】
+1.	語言/統計/教育/資訊等相關背景皆歡迎。擅長數據工具使用（R、Python、Google Analytics、Excel等）</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/6zvwr?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8f6al?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8/09</t>
+          <t>8/06</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>【智慧製造發展中心】數據平台工程師</t>
+          <t>Data Scientist 數據科學家</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>日月光半導體製造股份有限公司中壢分公司</t>
+          <t>美庫爾數據商務顧問股份有限公司</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>半導體製造業</t>
+          <t>工商顧問服務業</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>桃園市中壢區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>年薪700,000~1,000,000元</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5328,48 +5317,44 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1. 專案需求評估、導入、管理。
-2. 與團隊成員協作，開發數據平台的各項模組。
-3. 各項數據平台模組(後臺管理/戰情儀表板/ Web統計報表 ...等) 功能開發與測試。
-4. 資料庫的數值操作與資料取用。
-5. 工廠各項 KPI、生產流程、</t>
+          <t>作為Merkle台灣的數據科學家，您將在數據驅動的以客戶為中心的解決方案中扮演關鍵角色，解決複雜的商業問題。在商業智慧、機器學習、統計分析和數據歸因分析方面的專業知識將對推動客戶的數據驅動決策過程至關重要。您也將作為一名數據說書人，從大量數據中挖</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8euqb?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8bzdr?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>8/09</t>
+          <t>8/14</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>數據工程師 Data Engineer -集團徵才-數據科技(數數發中心, DDT)_I00014628</t>
+          <t>儲能數據分析工程師</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>國泰金控_國泰金融控股股份有限公司</t>
+          <t>新普科技股份有限公司</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>金融控股業</t>
+          <t>電池製造業</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>新竹縣湖口鄉</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5379,54 +5364,52 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[主要任務]
-1. 各項數據資料盤點與蒐集，並進行資料模型設計與管理
-2. 因應業務需求支援各類型來源資料串接、資料處理，完善資料倉儲
-3. 資料 ETL 流程自動化規劃、設計、開發與監控維護
-4. 資料品質之監控與管理，及對應機制的建立
-5.</t>
+          <t>1. 對各儲能案場收集之數據，進行數據分析與模型架構研究。 
+2. 彙整、分析與定期產出各類型的監測資料或報告。 
+3. 數據預處理、特徵工程、模型選擇/融合、模型訓練/測試、數據問題分析及解決、模型評估的程式開發。 
+4. 機器學習、深度學習或</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/87w7s?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7zty1?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7/30</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Python開發工程師</t>
+          <t>資料工程師/後端工程師</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>加林軟體科技有限公司</t>
+          <t>銓鍇國際股份有限公司</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>網際網路相關業</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>台北市中正區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5441,107 +5424,112 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>職位要求：
-1.技能要求：熟悉Python程式語言，具備扎實的程式設計基礎，包含function、Class、Init等基礎架構及物件導向程式設計概念。 
-2.專業知識：對GenAI開源模型有導入和測試的實際操作經驗，瞭解LangChain開發框</t>
+          <t>1.開發數據架構核心模組及數據服務。  
+2.開發資料模型和數據管理等解決方案。  
+3.基於成本有效性持續改善資料流水線、相關流程及架構。
+4.具實踐安全性的實務經驗，如資料保護、資料分級等，以保護公司和客戶的數據。  
+5.理解資料倉儲、資料</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/87ua3?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8e74p?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8/15</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>生醫演算法工程師</t>
+          <t>Unity全端工程師</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>精準醫電科技股份有限公司</t>
+          <t>斐亞米有限公司</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>專門設計相關業</t>
+          <t>其它軟體及網路相關業</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>台中市西屯區</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>月薪40,000~120,000元</t>
+          <t>月薪40,000~60,000元</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> :
-1. 開發新演算法或改進現有演算法，用於血壓及血氧及其他生理訊號。
-2. 分析臨床數據庫或生物傳感器收集的（通常是連續動態的）數據。
-3. 生醫訊號演算法與生理訊號處理
-4. 雜訊抑制 (noise reduction) 及萃取 (</t>
+          <t>數據庫管理和API設計。
+【基本條件】
+- 具有至少一年以上的Unity 2D遊戲開發經驗。
+- 熟悉C#語言。
+- 對2D遊戲開發有深厚的熱情。
+- 有良好的問題解決能力和自我學習能力。
+- 能夠獨立工作，與團隊合作共同設計策劃遊戲。
+- 熟練</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8ba2i?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8colm?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8/07</t>
+          <t>8/12</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>【高雄總部】eHRD事業群_研發處_後端工程師(JAVA)</t>
+          <t>【風險諮詢】數位轉型服務-資料分析長期實習生</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>旭聯科技股份有限公司</t>
+          <t>勤業眾信聯合會計師事務所</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>網際網路相關業</t>
+          <t>會計服務業</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>高雄市新興區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>月薪32,000~42,000元</t>
+          <t>時薪190元</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5556,39 +5544,37 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> web service
-2、雲端相關技術或大數據分析，AI 等相關能力
-3、DevOps 相關技能 (CI, 容器化)
-4、其他程式語言, 如 C#, python, ruby, Kotlin 等
-5、Design Pattern
-6、企業人資系</t>
+          <t>本職務將提供以資料流程、資料分析為目標的實習生一個良好的實務學習機會。
+1.	協助整理資料分析與產業趨勢的文件與內容
+2.	協助資料相關專案的文件準備與行政事務
+3.	協助撰寫數據處理與分析的程式，主要語言為 Python</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7le5v?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7p8if?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8/14</t>
+          <t>8/12</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HFT 高頻交易員Trader or Team Lead</t>
+          <t>【數位驅動】資料科學工程師_Data (數數發中心，DDT)_I00011494</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>LRS_英屬維京群島商杰恒國際有限公司台灣分公司</t>
+          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>人力仲介代徵</t>
+          <t>銀行業</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5608,104 +5594,107 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>資格要求：
-- 擅長金融微觀結構與數據分析
-- 熟悉在 Linux或Unix等平台上使用C＋+反物件導向程式設計/設計模式
-加分項目：
-- 具有 Linux 或 Unix 系統操作經驗
-- 具備 Python與 Machine Learning</t>
+          <t xml:space="preserve">1. Hive資料市集設計、開發、管理維護
+2. ETL 問題追蹤與管理
+3. 資料處理與整合
+4. 用資料導向概念提升各類業務，並導入系統以加強各項資料應用
+5. 協助資料研究及分析過程中需要的資料處理
+6. 導檔排程優化/維運
+7. 協助導檔排程上線
+8. 資料相關資料庫管理/維運(Neo4j、MongoDB、Oracle、Hadoop...等)
+9. 文件撰寫、簡報製作
+</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8b7wg?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/87176?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8/14</t>
+          <t>8/08</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>交易員(計量交易部)</t>
+          <t>AI大數據應用工程師</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>永豐金證券股份有限公司</t>
+          <t>中嘉數位股份有限公司</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>證券及期貨業</t>
+          <t>網際網路相關業</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>新北市板橋區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>月薪40,000~80,000元</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.	負責權益證券、期貨等衍生性商品自營交易操作
-2.	交易策略研究與開發
-3.	遵循自營風險控管與相關法令規範
-4.	具SAS、Python等大數據處理使用經驗者尤佳</t>
+          <t>發 (運用軟體: Tools：Python &amp; SQL &amp; Trinity ETL  | DB: MS SQL &amp; Greenplum )。
+2.	針對行銷/業務/網路相關主題的AI專案(機器學習為主) 執行。
+3.	網路數據蒐集進行自動化開發 (</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8febr?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8fkwl?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8/09</t>
+          <t>8/14</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>電力交易員</t>
+          <t>【海外通路】數據工程師 (數數發_台中CDC)_I00008683</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>台泥企業團_台泥儲能科技股份有限公司</t>
+          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>電力供應業</t>
+          <t>銀行業</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台中市烏日區</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5715,51 +5704,50 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1. 電力交易客戶開發與經營，包含客戶提案、場勘、日常運維與突發狀況溝通。
-2. 電力資訊平台開發，提供Domain Know-How協助工程師進行平台功能開發與優化。
-3. 能源政策與相關法規理解及追蹤，包含蒐集市場資訊、參與研討會與分享。</t>
+          <t>經驗，持續在東南亞市場打造高品質、創新的數位金融服務體驗。
+「國際消金發展部」集結了金融及非金融領域的多元菁英，包括商業開發、網路科技、數據分析、數位行銷等專業人才。我們重視團隊合作文化，以實現東南亞金融生態圈為目標，深入了解世界各國金融服務文化</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7w0zy?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8e7ue?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>商業數據分析師</t>
+          <t>Automation Architect/Engineer</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>台北富邦商業銀行股份有限公司</t>
+          <t>英屬開曼群島商互動寬頻股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>其他電信及通訊相關業</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>新竹縣竹北市</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5769,7 +5757,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5779,41 +5767,44 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>數據科學部是台北富邦銀行數據服務的核心開發中心，中心的使命是落地科技前沿技術以服務行內業務行銷分析、客戶個人化金融場景，建立以數據驅動的商業模式。
-在這裡我們重視以下文化，也希望來到這的夥伴們重視他們：
-1.開放：自由地分享想法、觀點和經驗。</t>
+          <t>試工作。
+　－確保在不同情境和場景下進行測試。
+　－不斷改進測試流程和方法。
+•	自動化程式設計：
+　－使用適當的工具和框架（例如Python、Selenium、PyTest, Allure）設計、開發和維護自動化測試腳本。
+　－對功能面進行的自</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/7e4ci?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8d5zl?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8/14</t>
+          <t>8/12</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>【數位驅動】資料科學工程師_數據應用 (數數發中心, DDT)_I00014665</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>時刻科技股份有限公司</t>
+          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>電腦軟體服務業</t>
+          <t>銀行業</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>台中市西區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5823,52 +5814,53 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>戰經驗
-- 精通SQL、Python等數據處理語言，熟悉現代數據倉儲技術
-- 對AWS、GCP、Firebase/Google Analysis、等雲平台的數據服務有深入了解
-- 熟悉ETL流程和工具(如 Mage.ai)，有設計複雜數據流的經驗</t>
+          <t>【主要職責 Who we are looking for】 
+負責企業資料倉儲及數據應用平台之建置/開發/管理。 
+【主要職責 Who we are looking for】 
+負責企業資料倉儲及數據應用平台之建置/開發/管理。 
+【職務說明</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8e0ph?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8a39r?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8/07</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>【數據發展部】- 演算法工程師</t>
+          <t>環境工程師</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>聯合報股份有限公司</t>
+          <t>長榮大學_環境資訊研究中心</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>其他出版業</t>
+          <t>大專校院教育事業</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>台南市歸仁區</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5883,50 +5875,54 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>碩士</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve">     因應企業多元業態，針對線上廣告、內容創新、平台經營、用戶經營、付費訂閱產品、線上交易等面相，積極協助相關部門規劃和導入演算法模型，執行及管理數據演算相關應用專案以提升各營運部門發展指標。
-2.     實作具備高可靠度(Reliability) 及</t>
+          <t>【工作內容】
+1. 協助專案計畫申請、執行、報告、簡報製作及計畫經費核銷
+2. 空氣模式模擬及數據資料處理分析
+3. 其他配合專案執行之交辦事項
+【條件需求】
+1. 教育部認可之國內外環境工程(科學)、大氣科學或資訊工程等理工相關系所碩士以上學</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/4u5lb?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/748cv?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8/15</t>
+          <t>8/09</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>【金融市場】外匯交易員</t>
+          <t>醫療數據分析應用開發實習生-金融醫療(數數發中心, DDT)_I00016356</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>遠東國際商業銀行股份有限公司</t>
+          <t>國泰金控_國泰金融控股股份有限公司</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>銀行業</t>
+          <t>金融控股業</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>時薪200元</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5936,61 +5932,57 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1.	外匯市場及選擇權交易
-2.	黃金期貨交易
-3.	外匯部位管理
-4.	實施和管理程式交易策略
-5.	開發和維護交易機器人
-6.	使用AI技術進行市場分析和交易策略優化
-7.	市場分析和風險管理
-8.	團隊合作及銀行交辦事項</t>
+          <t>* 具python 開發經驗
+    * Python 基礎知識（語法、數據結構、控制結構等）
+    * Python 標準庫和常用模塊（例如：NumPy、Pandas、Matplotlib）
+    * Python 框架（例如：Django</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/4tvvs?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/89be3?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8/09</t>
+          <t>7/15</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BMC/BIOS Firmware Test Engineer (具備3~6年工作經驗)(E&amp;I-三重)</t>
+          <t>系統工程師System Engineer</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>(捷普集團)綠點高新科技股份有限公司捷普設計服務分公司</t>
+          <t>恆創網路服務有限公司</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>消費性電子產品製造業</t>
+          <t>網際網路相關業</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>遠端工作</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6000,58 +5992,50 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOB SUMMARY (Main Responsibilities)
-Jabil Server &amp; Embedded product Firmware function validation and test case creation. Test targets include Rack/Tower Server, Storage Server, Networking Server BIOS &amp; BMC FW Platform integration and function test. 
-ESSENTIAL DUTIES AND RESPONSIBILITIES 
-1. Executive the BIOS &amp; BMC FW release test.
-2. New test case creation and maintain. 
-3. Familiar with server architecture, able to setup the server test environment. 
-4. Report defect via Bug tracking systems (Jira or Bugzilla)
-5. Able to create test scripts, optimize the test cases. 
-6. Create SOP or documentation. 
-7. Plan the test execution cycle based on FW release schedule. 
-8. Support Engineering team to narrow down the test failed step, reproduce the issue or create the unit test cases. 
-Management &amp; Supervisory Responsibilities
-• Typically reports to Management. Direct supervisor Engineering Manager or Group Lead 
-• Job is NOT directly responsible for managing other employees 
-</t>
+          <t>1. Linux / WIndows 系統建置與管理
+2. VMWARE 安裝、設置
+3. 數據中心伺服器安裝與管理
+4.伺服器應用軟體安裝與效能測試
+5.系統偵錯與故障排除
+6、CDN 設定及建置
+7、基本PYTHON 或 SHELL</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/804y2?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7er4o?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8/13</t>
+          <t>8/15</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>國網中心_空間資訊技術研究人員-新竹(編制NCHC_112_03_09)</t>
+          <t>資料分析人員(資訊部)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>財團法人國家實驗研究院</t>
+          <t>國票綜合證券股份有限公司</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>政府／民意機關</t>
+          <t>證券及期貨業</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>新竹市</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>月薪38,000~59,000元</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6061,21 +6045,20 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1. 航遙測影像數據處理分析
-2. 開發機器學習、深度學習於地理空間數據判釋技術
-3. 研究遙測數據管理架構，整合強化資料分析與應用
-4. 建立基於GPU計算之遙測推論與分析研究
-5. 其他主管交辦</t>
+          <t>1.客戶資料分析
+2.客戶行為分析
+3.業務分析
+4.資訊安全分析</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/86mtc?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/88j02?jobsource=index_s</t>
         </is>
       </c>
     </row>

--- a/RequestData/jobsearch_data104.xlsx
+++ b/RequestData/jobsearch_data104.xlsx
@@ -4272,102 +4272,45 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8/06</t>
+          <t>8/14</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>【IT】AI 助理工程師(台北內科)</t>
+          <t>AI工程師</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>智聯服務股份有限公司</t>
+          <t>台驊國際控股股份有限公司</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>電腦系統整合服務業</t>
+          <t>其他投資理財相關業</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>月薪40,000元以上</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[駐點於知名科技公司服務]
-1.	AI應用開發與維護：負責開發、維護AI應用程式，並參與系統整合，協助手機專案。
-2.	AI應用程式驗證: 撰寫簡易自動化驗證程式確保軟體運作狀況
-3.	文件撰寫：撰寫技術文件和使用者手冊，以協助使用者了解系統功能和操作方法。
-4.	技術研究與評估：研究新興AI技術，評估其對現有系統的潛在價值，並根據業務需求進行技術引進和整合。
-</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8bd94?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>8/14</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>AI工程師</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>台驊國際控股股份有限公司</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>其他投資理財相關業</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>台北市信義區</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
         <is>
           <t>工作內容：
 1.應用LLM於各種領域需求
@@ -4382,9 +4325,66 @@
 1</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8g1m7?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>8/06</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>【IT】AI 助理工程師(台北內科)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>智聯服務股份有限公司</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>月薪40,000元以上</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[駐點於知名科技公司服務]
+1.	AI應用開發與維護：負責開發、維護AI應用程式，並參與系統整合，協助手機專案。
+2.	AI應用程式驗證: 撰寫簡易自動化驗證程式確保軟體運作狀況
+3.	文件撰寫：撰寫技術文件和使用者手冊，以協助使用者了解系統功能和操作方法。
+4.	技術研究與評估：研究新興AI技術，評估其對現有系統的潛在價值，並根據業務需求進行技術引進和整合。
+</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8g1m7?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8bd94?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -4947,101 +4947,45 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8/13</t>
+          <t>8/12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>數據工程師</t>
+          <t>AI技術支援工程師</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AIR SPACE_新地國際股份有限公司</t>
+          <t>志合人工智能股份有限公司</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>鞋類／布類／服飾品批發業</t>
+          <t>其它軟體及網路相關業</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>台北市士林區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>待遇面議</t>
+          <t>月薪38,000元以上</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
-        <is>
-          <t>者緊密合作，了解需求並交付數據解決方案。
-7. 故障排除：監控資料基礎設施的性能，並進行必要的調整和優化，並解決數據管道中的問題，以確保運行順利。
-8. 良好的溝通與表達能力
-擅長工具
-Python、R、MS SQL、MySQL、Excel、</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8fvcr?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>AI技術支援工程師</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>志合人工智能股份有限公司</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>其它軟體及網路相關業</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>台北市內湖區</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>月薪38,000元以上</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2年以上</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>大學</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
         <is>
           <t>1. 依AIPC產品功能與網站服務內容，撰寫測試用例與測試計畫。
 2. 針對AIPC應用與網站服務進行系統、功能、UI/UX等相容性測試與壓力測試並產出測試報告。
@@ -5052,9 +4996,65 @@
 ※工作待遇以實際面談後依學經歷、工作年資 核定敘薪。</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8evh3?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>8/13</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>數據工程師</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>AIR SPACE_新地國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>鞋類／布類／服飾品批發業</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>台北市士林區</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>者緊密合作，了解需求並交付數據解決方案。
+7. 故障排除：監控資料基礎設施的性能，並進行必要的調整和優化，並解決數據管道中的問題，以確保運行順利。
+8. 良好的溝通與表達能力
+擅長工具
+Python、R、MS SQL、MySQL、Excel、</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/8evh3?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/8fvcr?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>【風險諮詢】數位轉型服務-資料分析長期實習生</t>
+          <t>【數位驅動】資料科學工程師_Data (數數發中心，DDT)_I00011494</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>勤業眾信聯合會計師事務所</t>
+          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>會計服務業</t>
+          <t>銀行業</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>時薪190元</t>
+          <t>待遇面議</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5539,65 +5539,10 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
-        <is>
-          <t>本職務將提供以資料流程、資料分析為目標的實習生一個良好的實務學習機會。
-1.	協助整理資料分析與產業趨勢的文件與內容
-2.	協助資料相關專案的文件準備與行政事務
-3.	協助撰寫數據處理與分析的程式，主要語言為 Python</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/7p8if?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>【數位驅動】資料科學工程師_Data (數數發中心，DDT)_I00011494</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>銀行業</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>台北市信義區</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>學歷不拘</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Hive資料市集設計、開發、管理維護
 2. ETL 問題追蹤與管理
@@ -5611,116 +5556,171 @@
 </t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/87176?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>8/12</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>【風險諮詢】數位轉型服務-資料分析長期實習生</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>勤業眾信聯合會計師事務所</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>會計服務業</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>時薪190元</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>本職務將提供以資料流程、資料分析為目標的實習生一個良好的實務學習機會。
+1.	協助整理資料分析與產業趨勢的文件與內容
+2.	協助資料相關專案的文件準備與行政事務
+3.	協助撰寫數據處理與分析的程式，主要語言為 Python</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>http://www.104.com.tw/job/87176?jobsource=index_s</t>
+          <t>http://www.104.com.tw/job/7p8if?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>8/14</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>【海外通路】數據工程師 (數數發_台中CDC)_I00008683</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>銀行業</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>台中市烏日區</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>學歷不拘</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>經驗，持續在東南亞市場打造高品質、創新的數位金融服務體驗。
+「國際消金發展部」集結了金融及非金融領域的多元菁英，包括商業開發、網路科技、數據分析、數位行銷等專業人才。我們重視團隊合作文化，以實現東南亞金融生態圈為目標，深入了解世界各國金融服務文化</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>http://www.104.com.tw/job/8e7ue?jobsource=index_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>8/08</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>AI大數據應用工程師</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>中嘉數位股份有限公司</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>網際網路相關業</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>台北市內湖區</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2年以上</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>大學</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>發 (運用軟體: Tools：Python &amp; SQL &amp; Trinity ETL  | DB: MS SQL &amp; Greenplum )。
 2.	針對行銷/業務/網路相關主題的AI專案(機器學習為主) 執行。
 3.	網路數據蒐集進行自動化開發 (</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>http://www.104.com.tw/job/8fkwl?jobsource=index_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>8/14</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>【海外通路】數據工程師 (數數發_台中CDC)_I00008683</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>國泰世華商業銀行股份有限公司_人力資源部</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>銀行業</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>台中市烏日區</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>待遇面議</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>3年以上</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>學歷不拘</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>經驗，持續在東南亞市場打造高品質、創新的數位金融服務體驗。
-「國際消金發展部」集結了金融及非金融領域的多元菁英，包括商業開發、網路科技、數據分析、數位行銷等專業人才。我們重視團隊合作文化，以實現東南亞金融生態圈為目標，深入了解世界各國金融服務文化</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>http://www.104.com.tw/job/8e7ue?jobsource=index_s</t>
         </is>
       </c>
     </row>
